--- a/Instances/04_NonStationary.xlsx
+++ b/Instances/04_NonStationary.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2946</v>
+        <v>1716</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>385.64</v>
+        <v>1.55</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>936</v>
+        <v>772</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>136.8</v>
+        <v>0.44</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>30.26</v>
+        <v>0.13</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>43.03</v>
+        <v>0.15</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>544</v>
+        <v>305</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>60.68</v>
+        <v>0.27</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>18.44</v>
+        <v>0.08</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>5.76</v>
+        <v>0.02</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>817</v>
+        <v>519</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>86.27</v>
+        <v>0.37</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>68</v>
+        <v>0.21</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1778</v>
+        <v>1235</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>214.22</v>
+        <v>0.63</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>44.09</v>
+        <v>0.16</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1868</v>
+        <v>2955</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>281.79</v>
+        <v>1.14</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>979</v>
+        <v>1067</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>120.69</v>
+        <v>0.4</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>25.73</v>
+        <v>0.11</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>50.4</v>
+        <v>0.2</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2691,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>586</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>50.83</v>
+        <v>0.27</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>21.2</v>
+        <v>0.08</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2749,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>5.19</v>
+        <v>0.03</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>4132</v>
+        <v>4729</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>606.29</v>
+        <v>2.5</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>5143</v>
+        <v>5243</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>572.41</v>
+        <v>2.24</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>4727</v>
+        <v>5345</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>503.17</v>
+        <v>2.01</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>3616</v>
+        <v>3490</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>713.61</v>
+        <v>2.46</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -2981,34 +2981,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D2" t="n">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G2" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H2" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I2" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J2" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K2" t="n">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="L2" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3052,34 +3052,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G3" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H3" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I3" t="n">
         <v>420</v>
       </c>
       <c r="J3" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K3" t="n">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="L3" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="D4" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3135,22 +3135,22 @@
         <v>297</v>
       </c>
       <c r="G4" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H4" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I4" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J4" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K4" t="n">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="L4" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3194,34 +3194,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D5" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G5" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H5" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I5" t="n">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J5" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K5" t="n">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="L5" t="n">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3265,34 +3265,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="D6" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="G6" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6" t="n">
         <v>28</v>
       </c>
       <c r="I6" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J6" t="n">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="K6" t="n">
-        <v>902</v>
+        <v>884</v>
       </c>
       <c r="L6" t="n">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3336,34 +3336,34 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D7" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G7" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="J7" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K7" t="n">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="L7" t="n">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -3407,34 +3407,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D8" t="n">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="G8" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H8" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I8" t="n">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J8" t="n">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="K8" t="n">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="L8" t="n">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -3478,34 +3478,34 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D9" t="n">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="G9" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H9" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I9" t="n">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="J9" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K9" t="n">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="L9" t="n">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -3636,34 +3636,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15.075</v>
+        <v>15.05</v>
       </c>
       <c r="D2" t="n">
-        <v>3.449999999999999</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.449999999999998</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>2.35</v>
+        <v>2.174999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9249999999999998</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="I2" t="n">
-        <v>10.425</v>
+        <v>10.5</v>
       </c>
       <c r="J2" t="n">
-        <v>7.549999999999998</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>22.575</v>
+        <v>22.47499999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>5.174999999999999</v>
+        <v>5.074999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3707,34 +3707,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>28.68999999999999</v>
+        <v>28.54749999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>7.219999999999998</v>
+        <v>7.314999999999998</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>14.6775</v>
+        <v>14.2975</v>
       </c>
       <c r="G3" t="n">
-        <v>4.227499999999999</v>
+        <v>4.512499999999998</v>
       </c>
       <c r="H3" t="n">
-        <v>1.8525</v>
+        <v>1.4725</v>
       </c>
       <c r="I3" t="n">
         <v>19.95</v>
       </c>
       <c r="J3" t="n">
-        <v>14.1075</v>
+        <v>14.2975</v>
       </c>
       <c r="K3" t="n">
-        <v>42.84499999999998</v>
+        <v>42.55999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>9.974999999999998</v>
+        <v>9.832499999999998</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3778,10 +3778,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.92099999999999</v>
+        <v>40.37899999999998</v>
       </c>
       <c r="D4" t="n">
-        <v>9.959249999999997</v>
+        <v>10.027</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>20.12174999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>6.165249999999998</v>
+        <v>6.436249999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1.829249999999999</v>
+        <v>2.371249999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>28.25174999999999</v>
+        <v>28.31949999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>20.39274999999999</v>
+        <v>20.46049999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>61.38149999999998</v>
+        <v>61.24599999999998</v>
       </c>
       <c r="L4" t="n">
-        <v>14.02424999999999</v>
+        <v>13.75325</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3849,34 +3849,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>51.9289</v>
+        <v>52.10084999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>14.013925</v>
+        <v>13.841975</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>26.30835</v>
+        <v>25.96445</v>
       </c>
       <c r="G5" t="n">
-        <v>7.823725</v>
+        <v>7.39385</v>
       </c>
       <c r="H5" t="n">
-        <v>2.321325</v>
+        <v>2.665225</v>
       </c>
       <c r="I5" t="n">
-        <v>36.1095</v>
+        <v>35.93755</v>
       </c>
       <c r="J5" t="n">
-        <v>26.1364</v>
+        <v>25.62055</v>
       </c>
       <c r="K5" t="n">
-        <v>76.86165</v>
+        <v>77.3775</v>
       </c>
       <c r="L5" t="n">
-        <v>18.312675</v>
+        <v>18.05475</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3920,34 +3920,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>62.45027499999999</v>
+        <v>60.50510249999999</v>
       </c>
       <c r="D6" t="n">
-        <v>15.766135</v>
+        <v>15.97089</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>29.79185249999999</v>
+        <v>30.508495</v>
       </c>
       <c r="G6" t="n">
-        <v>9.316352499999999</v>
+        <v>9.418729999999998</v>
       </c>
       <c r="H6" t="n">
         <v>2.866569999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>42.89617249999999</v>
+        <v>42.793795</v>
       </c>
       <c r="J6" t="n">
-        <v>30.40611749999999</v>
+        <v>31.02038249999999</v>
       </c>
       <c r="K6" t="n">
-        <v>92.34450499999998</v>
+        <v>90.50170999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>20.1683675</v>
+        <v>21.90878499999999</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3991,34 +3991,34 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>69.58101149999999</v>
+        <v>68.99531275</v>
       </c>
       <c r="D7" t="n">
-        <v>17.5709625</v>
+        <v>17.336683</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>35.14192499999999</v>
+        <v>34.32194675</v>
       </c>
       <c r="G7" t="n">
-        <v>10.776857</v>
+        <v>10.65971725</v>
       </c>
       <c r="H7" t="n">
-        <v>2.811354</v>
+        <v>3.5141925</v>
       </c>
       <c r="I7" t="n">
-        <v>48.73013599999999</v>
+        <v>49.31583474999999</v>
       </c>
       <c r="J7" t="n">
-        <v>35.49334424999999</v>
+        <v>35.8447635</v>
       </c>
       <c r="K7" t="n">
-        <v>104.13723775</v>
+        <v>105.30863525</v>
       </c>
       <c r="L7" t="n">
-        <v>24.365068</v>
+        <v>25.65360525</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -4062,34 +4062,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>78.25546499999999</v>
+        <v>77.73376189999998</v>
       </c>
       <c r="D8" t="n">
-        <v>20.215995125</v>
+        <v>19.30301469999999</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>39.64943559999999</v>
+        <v>37.69304897499999</v>
       </c>
       <c r="G8" t="n">
-        <v>11.347042425</v>
+        <v>11.4774682</v>
       </c>
       <c r="H8" t="n">
-        <v>3.521495924999999</v>
+        <v>5.086605224999999</v>
       </c>
       <c r="I8" t="n">
-        <v>55.17010282499999</v>
+        <v>54.77882549999998</v>
       </c>
       <c r="J8" t="n">
-        <v>40.56241602499999</v>
+        <v>39.51900982499999</v>
       </c>
       <c r="K8" t="n">
-        <v>117.513623275</v>
+        <v>117.774474825</v>
       </c>
       <c r="L8" t="n">
-        <v>28.17196739999999</v>
+        <v>27.51983852499999</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -4133,34 +4133,34 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>86.28421768499999</v>
+        <v>85.14515210499998</v>
       </c>
       <c r="D9" t="n">
-        <v>21.64224601999999</v>
+        <v>21.07271323</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>43.14210884249999</v>
+        <v>41.43351047249999</v>
       </c>
       <c r="G9" t="n">
-        <v>13.384020565</v>
+        <v>13.09925417</v>
       </c>
       <c r="H9" t="n">
-        <v>3.986729529999999</v>
+        <v>4.841028714999999</v>
       </c>
       <c r="I9" t="n">
-        <v>59.80094294999999</v>
+        <v>58.94664376499999</v>
       </c>
       <c r="J9" t="n">
-        <v>42.43019285499999</v>
+        <v>43.28449203999999</v>
       </c>
       <c r="K9" t="n">
-        <v>127.1481953675</v>
+        <v>128.0024945525</v>
       </c>
       <c r="L9" t="n">
-        <v>28.761405895</v>
+        <v>30.47000426499999</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2916</v>
+        <v>11664</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5400</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1512</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>162</v>
+        <v>810</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>216</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3024</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2160</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4860</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8748</v>
+        <v>14580</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4320</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>540</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>756</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>270</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5400</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16200</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>

--- a/Instances/04_NonStationary.xlsx
+++ b/Instances/04_NonStationary.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1716</v>
+        <v>1760</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>1.55</v>
+        <v>315.5088120415481</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>772</v>
+        <v>868</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>0.44</v>
+        <v>108.3167326035843</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2320,7 +2320,7 @@
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.13</v>
+        <v>20.42954208695064</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>349</v>
+        <v>278</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.15</v>
+        <v>34.1112614699658</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.27</v>
+        <v>43.34014156045467</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08</v>
+        <v>15.44686881339055</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02</v>
+        <v>4.184835964987873</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.37</v>
+        <v>72.99890132892875</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>461</v>
+        <v>304</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.21</v>
+        <v>59.224118824817</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1235</v>
+        <v>924</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.63</v>
+        <v>174.9397521221915</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.16</v>
+        <v>40.63203713655311</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2955</v>
+        <v>2291</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>1.14</v>
+        <v>246.1415814124767</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1067</v>
+        <v>464</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4</v>
+        <v>107.309854096631</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.11</v>
+        <v>23.41795015028483</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>315</v>
+        <v>172</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2</v>
+        <v>29.92671693997093</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2691,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>586</v>
+        <v>425</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>0.27</v>
+        <v>45.95499423615371</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08</v>
+        <v>15.19379333073998</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2749,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03</v>
+        <v>4.492708169099948</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>4729</v>
+        <v>4238</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>2.5</v>
+        <v>53.03463973490213</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>5243</v>
+        <v>4062</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>2.24</v>
+        <v>64.45308929346913</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5345</v>
+        <v>2829</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>2.01</v>
+        <v>90.71344301851614</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>3490</v>
+        <v>2259</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>2.46</v>
+        <v>295.6151504740004</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -2981,34 +2981,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D2" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H2" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I2" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J2" t="n">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="K2" t="n">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="L2" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3052,34 +3052,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D3" t="n">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G3" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H3" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I3" t="n">
         <v>420</v>
       </c>
       <c r="J3" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K3" t="n">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="L3" t="n">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3123,34 +3123,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D4" t="n">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G4" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H4" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="J4" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K4" t="n">
-        <v>904</v>
+        <v>889</v>
       </c>
       <c r="L4" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3197,31 +3197,31 @@
         <v>606</v>
       </c>
       <c r="D5" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G5" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H5" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I5" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J5" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K5" t="n">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="L5" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3265,34 +3265,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D6" t="n">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G6" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H6" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I6" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J6" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K6" t="n">
-        <v>884</v>
+        <v>903</v>
       </c>
       <c r="L6" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3336,34 +3336,34 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="D7" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="G7" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" t="n">
         <v>421</v>
       </c>
       <c r="J7" t="n">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="K7" t="n">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="L7" t="n">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -3407,34 +3407,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="D8" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="G8" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H8" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I8" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="J8" t="n">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K8" t="n">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="L8" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -3478,34 +3478,34 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="D9" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G9" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H9" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I9" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="J9" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K9" t="n">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="L9" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -3636,34 +3636,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15.05</v>
+        <v>14.925</v>
       </c>
       <c r="D2" t="n">
-        <v>3.899999999999999</v>
+        <v>3.874999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.399999999999999</v>
+        <v>7.374999999999998</v>
       </c>
       <c r="G2" t="n">
-        <v>2.174999999999999</v>
+        <v>1.975</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.8499999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>10.5</v>
+        <v>10.525</v>
       </c>
       <c r="J2" t="n">
-        <v>7.399999999999999</v>
+        <v>7.574999999999998</v>
       </c>
       <c r="K2" t="n">
-        <v>22.47499999999999</v>
+        <v>22.65</v>
       </c>
       <c r="L2" t="n">
-        <v>5.074999999999999</v>
+        <v>5.224999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3707,34 +3707,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>28.54749999999999</v>
+        <v>28.26249999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>7.314999999999998</v>
+        <v>7.029999999999998</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>14.2975</v>
+        <v>14.2025</v>
       </c>
       <c r="G3" t="n">
-        <v>4.512499999999998</v>
+        <v>4.369999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1.4725</v>
+        <v>1.615</v>
       </c>
       <c r="I3" t="n">
         <v>19.95</v>
       </c>
       <c r="J3" t="n">
-        <v>14.2975</v>
+        <v>14.2025</v>
       </c>
       <c r="K3" t="n">
-        <v>42.55999999999999</v>
+        <v>42.46499999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>9.832499999999998</v>
+        <v>10.165</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3778,34 +3778,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.37899999999998</v>
+        <v>40.31124999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>10.027</v>
+        <v>9.688249999999996</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>20.12174999999999</v>
+        <v>20.52824999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>6.436249999999998</v>
+        <v>5.690999999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>2.371249999999999</v>
+        <v>1.42275</v>
       </c>
       <c r="I4" t="n">
-        <v>28.31949999999999</v>
+        <v>28.59049999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>20.46049999999999</v>
+        <v>19.98624999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>61.24599999999998</v>
+        <v>60.22974999999998</v>
       </c>
       <c r="L4" t="n">
-        <v>13.75325</v>
+        <v>13.55</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3852,31 +3852,31 @@
         <v>52.10084999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>13.841975</v>
+        <v>13.24015</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.96445</v>
+        <v>25.362625</v>
       </c>
       <c r="G5" t="n">
-        <v>7.39385</v>
+        <v>7.04995</v>
       </c>
       <c r="H5" t="n">
-        <v>2.665225</v>
+        <v>2.493275</v>
       </c>
       <c r="I5" t="n">
-        <v>35.93755</v>
+        <v>36.1095</v>
       </c>
       <c r="J5" t="n">
-        <v>25.62055</v>
+        <v>25.706525</v>
       </c>
       <c r="K5" t="n">
-        <v>77.3775</v>
+        <v>77.463475</v>
       </c>
       <c r="L5" t="n">
-        <v>18.05475</v>
+        <v>18.2267</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3920,34 +3920,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>60.50510249999999</v>
+        <v>60.81223499999999</v>
       </c>
       <c r="D6" t="n">
-        <v>15.97089</v>
+        <v>15.4590025</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>30.508495</v>
+        <v>30.91800499999999</v>
       </c>
       <c r="G6" t="n">
-        <v>9.418729999999998</v>
+        <v>9.213974999999998</v>
       </c>
       <c r="H6" t="n">
-        <v>2.866569999999999</v>
+        <v>2.3546825</v>
       </c>
       <c r="I6" t="n">
-        <v>42.793795</v>
+        <v>42.99854999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>31.02038249999999</v>
+        <v>30.30373999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>90.50170999999999</v>
+        <v>92.44688249999999</v>
       </c>
       <c r="L6" t="n">
-        <v>21.90878499999999</v>
+        <v>22.42067249999999</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3991,34 +3991,34 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>68.99531275</v>
+        <v>69.81529099999999</v>
       </c>
       <c r="D7" t="n">
-        <v>17.336683</v>
+        <v>17.21954325</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>34.32194675</v>
+        <v>35.72762375</v>
       </c>
       <c r="G7" t="n">
-        <v>10.65971725</v>
+        <v>9.254040249999999</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5141925</v>
+        <v>3.16277325</v>
       </c>
       <c r="I7" t="n">
         <v>49.31583474999999</v>
       </c>
       <c r="J7" t="n">
-        <v>35.8447635</v>
+        <v>34.43908649999999</v>
       </c>
       <c r="K7" t="n">
-        <v>105.30863525</v>
+        <v>105.6600545</v>
       </c>
       <c r="L7" t="n">
-        <v>25.65360525</v>
+        <v>24.5993475</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -4062,34 +4062,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>77.73376189999998</v>
+        <v>78.77716809999998</v>
       </c>
       <c r="D8" t="n">
-        <v>19.30301469999999</v>
+        <v>19.04216314999999</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>37.69304897499999</v>
+        <v>39.51900982499999</v>
       </c>
       <c r="G8" t="n">
-        <v>11.4774682</v>
+        <v>10.564487775</v>
       </c>
       <c r="H8" t="n">
-        <v>5.086605224999999</v>
+        <v>3.651921699999999</v>
       </c>
       <c r="I8" t="n">
-        <v>54.77882549999998</v>
+        <v>55.17010282499999</v>
       </c>
       <c r="J8" t="n">
-        <v>39.51900982499999</v>
+        <v>38.99730672499999</v>
       </c>
       <c r="K8" t="n">
-        <v>117.774474825</v>
+        <v>117.9049006</v>
       </c>
       <c r="L8" t="n">
-        <v>27.51983852499999</v>
+        <v>26.99813542499999</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -4133,34 +4133,34 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>85.14515210499998</v>
+        <v>85.99945128999998</v>
       </c>
       <c r="D9" t="n">
-        <v>21.07271323</v>
+        <v>21.2150964275</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>41.43351047249999</v>
+        <v>41.57589366999999</v>
       </c>
       <c r="G9" t="n">
-        <v>13.09925417</v>
+        <v>11.96018859</v>
       </c>
       <c r="H9" t="n">
-        <v>4.841028714999999</v>
+        <v>4.413879122499999</v>
       </c>
       <c r="I9" t="n">
-        <v>58.94664376499999</v>
+        <v>59.37379335749999</v>
       </c>
       <c r="J9" t="n">
-        <v>43.28449203999999</v>
+        <v>42.8573424475</v>
       </c>
       <c r="K9" t="n">
-        <v>128.0024945525</v>
+        <v>128.429644145</v>
       </c>
       <c r="L9" t="n">
-        <v>30.47000426499999</v>
+        <v>30.18523786999999</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11664</v>
+        <v>8748</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2160</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1350</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1134</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2160</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>810</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>540</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3240</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1512</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14580</v>
+        <v>5832</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5400</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1080</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>540</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>162</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>54</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27000</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16200</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5400</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16200</v>
+        <v>27000</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_NonStationary.xlsx
+++ b/Instances/04_NonStationary.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1760</v>
+        <v>2016</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>315.5088120415481</v>
+        <v>15.7805675987505</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>868</v>
+        <v>899</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>108.3167326035843</v>
+        <v>6.707314266955791</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>20.42954208695064</v>
+        <v>1.480387459504384</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>34.1112614699658</v>
+        <v>1.887167657045746</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>43.34014156045467</v>
+        <v>3.376142601774923</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>15.44686881339055</v>
+        <v>0.92105833760448</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>4.184835964987873</v>
+        <v>0.3130218019930881</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>72.99890132892875</v>
+        <v>3.911151210673855</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>59.224118824817</v>
+        <v>3.399429671146222</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>924</v>
+        <v>1100</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>174.9397521221915</v>
+        <v>7.773755043735239</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>40.63203713655311</v>
+        <v>2.520300332823445</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2291</v>
+        <v>2360</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>246.1415814124767</v>
+        <v>17.38928063152647</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>464</v>
+        <v>578</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>107.309854096631</v>
+        <v>7.349352331810318</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>23.41795015028483</v>
+        <v>1.562269384037602</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>172</v>
+        <v>306</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>29.92671693997093</v>
+        <v>2.297347078835922</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2691,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>45.95499423615371</v>
+        <v>2.607520800595032</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>15.19379333073998</v>
+        <v>0.7566693837809974</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2749,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>4.492708169099948</v>
+        <v>0.2458357209219135</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>4238</v>
+        <v>2818</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>53.03463973490213</v>
+        <v>3.344520711314983</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>4062</v>
+        <v>2574</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>64.45308929346913</v>
+        <v>4.804769854049668</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2829</v>
+        <v>2662</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>90.71344301851614</v>
+        <v>6.073575210913718</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2259</v>
+        <v>2440</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>295.6151504740004</v>
+        <v>16.59249450244388</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -2981,34 +2981,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="D2" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="G2" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H2" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I2" t="n">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J2" t="n">
         <v>303</v>
       </c>
       <c r="K2" t="n">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="L2" t="n">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3052,22 +3052,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D3" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G3" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I3" t="n">
         <v>420</v>
@@ -3076,10 +3076,10 @@
         <v>299</v>
       </c>
       <c r="K3" t="n">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="L3" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3123,34 +3123,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="D4" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G4" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J4" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K4" t="n">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="L4" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3194,34 +3194,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="D5" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G5" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H5" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I5" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J5" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K5" t="n">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="L5" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3265,34 +3265,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="D6" t="n">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G6" t="n">
         <v>90</v>
       </c>
       <c r="H6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I6" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="J6" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K6" t="n">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="L6" t="n">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3336,34 +3336,34 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D7" t="n">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G7" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H7" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I7" t="n">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J7" t="n">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="K7" t="n">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="L7" t="n">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -3407,34 +3407,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D8" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G8" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J8" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K8" t="n">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="L8" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -3481,31 +3481,31 @@
         <v>604</v>
       </c>
       <c r="D9" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="G9" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H9" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I9" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J9" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K9" t="n">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="L9" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -3636,34 +3636,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14.925</v>
+        <v>15.125</v>
       </c>
       <c r="D2" t="n">
-        <v>3.874999999999999</v>
+        <v>3.774999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.374999999999998</v>
+        <v>7.649999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>1.975</v>
+        <v>2.225</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8499999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>10.525</v>
+        <v>10.5</v>
       </c>
       <c r="J2" t="n">
         <v>7.574999999999998</v>
       </c>
       <c r="K2" t="n">
-        <v>22.65</v>
+        <v>22.525</v>
       </c>
       <c r="L2" t="n">
-        <v>5.224999999999999</v>
+        <v>4.999999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3707,22 +3707,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>28.26249999999999</v>
+        <v>28.45249999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>7.029999999999998</v>
+        <v>6.934999999999998</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>14.2025</v>
+        <v>14.4875</v>
       </c>
       <c r="G3" t="n">
-        <v>4.369999999999999</v>
+        <v>4.607499999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1.615</v>
+        <v>1.757499999999999</v>
       </c>
       <c r="I3" t="n">
         <v>19.95</v>
@@ -3731,10 +3731,10 @@
         <v>14.2025</v>
       </c>
       <c r="K3" t="n">
-        <v>42.46499999999999</v>
+        <v>42.27499999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>10.165</v>
+        <v>10.1175</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3778,34 +3778,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.31124999999999</v>
+        <v>40.85324999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>9.688249999999996</v>
+        <v>10.027</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>20.52824999999999</v>
+        <v>20.66374999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>5.690999999999998</v>
+        <v>6.165249999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1.42275</v>
+        <v>1.964749999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>28.59049999999999</v>
+        <v>28.38724999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>19.98624999999999</v>
+        <v>20.18949999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>60.22974999999998</v>
+        <v>60.63624999999998</v>
       </c>
       <c r="L4" t="n">
-        <v>13.55</v>
+        <v>14.363</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3849,34 +3849,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>52.10084999999999</v>
+        <v>51.2411</v>
       </c>
       <c r="D5" t="n">
-        <v>13.24015</v>
+        <v>12.89625</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.362625</v>
+        <v>25.96445</v>
       </c>
       <c r="G5" t="n">
-        <v>7.04995</v>
+        <v>8.08165</v>
       </c>
       <c r="H5" t="n">
-        <v>2.493275</v>
+        <v>2.837175</v>
       </c>
       <c r="I5" t="n">
-        <v>36.1095</v>
+        <v>36.023525</v>
       </c>
       <c r="J5" t="n">
-        <v>25.706525</v>
+        <v>25.4486</v>
       </c>
       <c r="K5" t="n">
-        <v>77.463475</v>
+        <v>77.119575</v>
       </c>
       <c r="L5" t="n">
-        <v>18.2267</v>
+        <v>18.05475</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3920,34 +3920,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>60.81223499999999</v>
+        <v>61.73363249999999</v>
       </c>
       <c r="D6" t="n">
-        <v>15.4590025</v>
+        <v>16.0732675</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>30.91800499999999</v>
+        <v>30.6108725</v>
       </c>
       <c r="G6" t="n">
         <v>9.213974999999998</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3546825</v>
+        <v>2.5594375</v>
       </c>
       <c r="I6" t="n">
-        <v>42.99854999999999</v>
+        <v>43.3056825</v>
       </c>
       <c r="J6" t="n">
-        <v>30.30373999999999</v>
+        <v>30.91800499999999</v>
       </c>
       <c r="K6" t="n">
-        <v>92.44688249999999</v>
+        <v>91.93499499999999</v>
       </c>
       <c r="L6" t="n">
-        <v>22.42067249999999</v>
+        <v>21.6016525</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3991,34 +3991,34 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>69.81529099999999</v>
+        <v>70.04957049999999</v>
       </c>
       <c r="D7" t="n">
-        <v>17.21954325</v>
+        <v>18.15666125</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>35.72762375</v>
+        <v>35.610484</v>
       </c>
       <c r="G7" t="n">
-        <v>9.254040249999999</v>
+        <v>10.89399675</v>
       </c>
       <c r="H7" t="n">
-        <v>3.16277325</v>
+        <v>3.748472</v>
       </c>
       <c r="I7" t="n">
-        <v>49.31583474999999</v>
+        <v>48.73013599999999</v>
       </c>
       <c r="J7" t="n">
-        <v>34.43908649999999</v>
+        <v>35.610484</v>
       </c>
       <c r="K7" t="n">
-        <v>105.6600545</v>
+        <v>105.1914955</v>
       </c>
       <c r="L7" t="n">
-        <v>24.5993475</v>
+        <v>23.6622295</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -4062,34 +4062,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>78.77716809999998</v>
+        <v>79.29887119999998</v>
       </c>
       <c r="D8" t="n">
-        <v>19.04216314999999</v>
+        <v>18.7813116</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>39.51900982499999</v>
+        <v>39.64943559999999</v>
       </c>
       <c r="G8" t="n">
-        <v>10.564487775</v>
+        <v>12.78172595</v>
       </c>
       <c r="H8" t="n">
-        <v>3.651921699999999</v>
+        <v>3.782347474999999</v>
       </c>
       <c r="I8" t="n">
-        <v>55.17010282499999</v>
+        <v>55.03967704999999</v>
       </c>
       <c r="J8" t="n">
-        <v>38.99730672499999</v>
+        <v>39.25815827499999</v>
       </c>
       <c r="K8" t="n">
-        <v>117.9049006</v>
+        <v>116.8614944</v>
       </c>
       <c r="L8" t="n">
-        <v>26.99813542499999</v>
+        <v>28.43281894999999</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -4136,31 +4136,31 @@
         <v>85.99945128999998</v>
       </c>
       <c r="D9" t="n">
-        <v>21.2150964275</v>
+        <v>21.7846292175</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>41.57589366999999</v>
+        <v>42.99972564499999</v>
       </c>
       <c r="G9" t="n">
-        <v>11.96018859</v>
+        <v>12.814487775</v>
       </c>
       <c r="H9" t="n">
-        <v>4.413879122499999</v>
+        <v>3.844346332499999</v>
       </c>
       <c r="I9" t="n">
-        <v>59.37379335749999</v>
+        <v>59.23141015999999</v>
       </c>
       <c r="J9" t="n">
-        <v>42.8573424475</v>
+        <v>42.99972564499999</v>
       </c>
       <c r="K9" t="n">
-        <v>128.429644145</v>
+        <v>128.14487775</v>
       </c>
       <c r="L9" t="n">
-        <v>30.18523786999999</v>
+        <v>30.0428546725</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8748</v>
+        <v>5832</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3240</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>540</v>
+        <v>810</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>324</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1512</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2160</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8100</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5832</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3240</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1512</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2160</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>324</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21600</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27000</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27000</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27000</v>
+        <v>16200</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_NonStationary.xlsx
+++ b/Instances/04_NonStationary.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2016</v>
+        <v>1630</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>15.7805675987505</v>
+        <v>134.8351536399082</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>899</v>
+        <v>605</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>6.707314266955791</v>
+        <v>42.38554657471128</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>1.480387459504384</v>
+        <v>14.47693718210702</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.887167657045746</v>
+        <v>20.73473530168958</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>3.376142601774923</v>
+        <v>23.33248609447879</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.92105833760448</v>
+        <v>6.194821101002734</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3130218019930881</v>
+        <v>2.858680686031278</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>520</v>
+        <v>422</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>3.911151210673855</v>
+        <v>40.72217334344644</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>3.399429671146222</v>
+        <v>28.35422978847698</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1100</v>
+        <v>905</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>7.773755043735239</v>
+        <v>77.97659080617028</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>2.520300332823445</v>
+        <v>19.36532000516009</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2360</v>
+        <v>1630</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>17.38928063152647</v>
+        <v>119.672242948371</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>7.349352331810318</v>
+        <v>58.16980769253966</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>1.562269384037602</v>
+        <v>11.47555893570064</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>306</v>
+        <v>215</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>2.297347078835922</v>
+        <v>18.50839115774448</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2691,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>383</v>
+        <v>305</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>2.607520800595032</v>
+        <v>19.56977651460847</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7566693837809974</v>
+        <v>6.482433225380097</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2749,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2458357209219135</v>
+        <v>1.983239957085875</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>2818</v>
+        <v>3041</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>3.344520711314983</v>
+        <v>27.32921755649127</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2574</v>
+        <v>3041</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>4.804769854049668</v>
+        <v>28.27276153800178</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2662</v>
+        <v>3041</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>6.073575210913718</v>
+        <v>35.28051541645419</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2440</v>
+        <v>3041</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>16.59249450244388</v>
+        <v>119.1990725932097</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -2984,31 +2984,31 @@
         <v>605</v>
       </c>
       <c r="D2" t="n">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G2" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2" t="n">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J2" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K2" t="n">
         <v>901</v>
       </c>
       <c r="L2" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3052,10 +3052,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D3" t="n">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>305</v>
       </c>
       <c r="G3" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H3" t="n">
         <v>37</v>
@@ -3073,13 +3073,13 @@
         <v>420</v>
       </c>
       <c r="J3" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K3" t="n">
-        <v>890</v>
+        <v>914</v>
       </c>
       <c r="L3" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3123,34 +3123,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D4" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G4" t="n">
         <v>91</v>
       </c>
       <c r="H4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I4" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J4" t="n">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K4" t="n">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="L4" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="D5" t="n">
         <v>150</v>
@@ -3203,25 +3203,25 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G5" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H5" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I5" t="n">
         <v>419</v>
       </c>
       <c r="J5" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="L5" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3265,34 +3265,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="D6" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G6" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H6" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I6" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J6" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="L6" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3336,34 +3336,34 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="D7" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G7" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H7" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I7" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J7" t="n">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K7" t="n">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L7" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -3407,34 +3407,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="D8" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G8" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I8" t="n">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="J8" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K8" t="n">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="L8" t="n">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -3478,34 +3478,34 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="D9" t="n">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G9" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H9" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I9" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J9" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="L9" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -3639,31 +3639,31 @@
         <v>15.125</v>
       </c>
       <c r="D2" t="n">
-        <v>3.774999999999999</v>
+        <v>3.624999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.649999999999999</v>
+        <v>7.574999999999998</v>
       </c>
       <c r="G2" t="n">
-        <v>2.225</v>
+        <v>2.125</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="J2" t="n">
-        <v>7.574999999999998</v>
+        <v>7.549999999999998</v>
       </c>
       <c r="K2" t="n">
         <v>22.525</v>
       </c>
       <c r="L2" t="n">
-        <v>4.999999999999999</v>
+        <v>4.949999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>28.45249999999999</v>
+        <v>28.35749999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>6.934999999999998</v>
+        <v>7.314999999999998</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -3719,7 +3719,7 @@
         <v>14.4875</v>
       </c>
       <c r="G3" t="n">
-        <v>4.607499999999999</v>
+        <v>4.227499999999999</v>
       </c>
       <c r="H3" t="n">
         <v>1.757499999999999</v>
@@ -3728,13 +3728,13 @@
         <v>19.95</v>
       </c>
       <c r="J3" t="n">
-        <v>14.2025</v>
+        <v>14.155</v>
       </c>
       <c r="K3" t="n">
-        <v>42.27499999999999</v>
+        <v>43.41499999999998</v>
       </c>
       <c r="L3" t="n">
-        <v>10.1175</v>
+        <v>10.26</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3778,34 +3778,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.85324999999999</v>
+        <v>41.12424999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>10.027</v>
+        <v>9.891499999999997</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>20.66374999999999</v>
+        <v>20.52824999999999</v>
       </c>
       <c r="G4" t="n">
         <v>6.165249999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1.964749999999999</v>
+        <v>1.761499999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>28.38724999999999</v>
+        <v>28.52274999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>20.18949999999999</v>
+        <v>19.85074999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>60.63624999999998</v>
+        <v>60.90724999999998</v>
       </c>
       <c r="L4" t="n">
-        <v>14.363</v>
+        <v>14.634</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>51.2411</v>
+        <v>52.014875</v>
       </c>
       <c r="D5" t="n">
         <v>12.89625</v>
@@ -3858,25 +3858,25 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.96445</v>
+        <v>25.534575</v>
       </c>
       <c r="G5" t="n">
-        <v>8.08165</v>
+        <v>7.39385</v>
       </c>
       <c r="H5" t="n">
-        <v>2.837175</v>
+        <v>2.665225</v>
       </c>
       <c r="I5" t="n">
         <v>36.023525</v>
       </c>
       <c r="J5" t="n">
-        <v>25.4486</v>
+        <v>25.7925</v>
       </c>
       <c r="K5" t="n">
-        <v>77.119575</v>
+        <v>78.06529999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>18.05475</v>
+        <v>17.71085</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3920,34 +3920,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>61.73363249999999</v>
+        <v>60.19796999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>16.0732675</v>
+        <v>16.4827775</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>30.6108725</v>
+        <v>29.9966075</v>
       </c>
       <c r="G6" t="n">
-        <v>9.213974999999998</v>
+        <v>8.906842499999998</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5594375</v>
+        <v>4.197477499999999</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3056825</v>
+        <v>43.20330499999999</v>
       </c>
       <c r="J6" t="n">
-        <v>30.91800499999999</v>
+        <v>30.71325</v>
       </c>
       <c r="K6" t="n">
-        <v>91.93499499999999</v>
+        <v>92.24212749999998</v>
       </c>
       <c r="L6" t="n">
-        <v>21.6016525</v>
+        <v>21.29452</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3991,34 +3991,34 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>70.04957049999999</v>
+        <v>70.75240899999999</v>
       </c>
       <c r="D7" t="n">
-        <v>18.15666125</v>
+        <v>17.805242</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>35.610484</v>
+        <v>35.02478524999999</v>
       </c>
       <c r="G7" t="n">
-        <v>10.89399675</v>
+        <v>11.12827625</v>
       </c>
       <c r="H7" t="n">
-        <v>3.748472</v>
+        <v>2.811354</v>
       </c>
       <c r="I7" t="n">
-        <v>48.73013599999999</v>
+        <v>48.96441549999999</v>
       </c>
       <c r="J7" t="n">
-        <v>35.610484</v>
+        <v>34.79050574999999</v>
       </c>
       <c r="K7" t="n">
-        <v>105.1914955</v>
+        <v>105.07435575</v>
       </c>
       <c r="L7" t="n">
-        <v>23.6622295</v>
+        <v>23.31081025</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -4062,34 +4062,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>79.29887119999998</v>
+        <v>77.60333612499998</v>
       </c>
       <c r="D8" t="n">
-        <v>18.7813116</v>
+        <v>19.43344047499999</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>39.64943559999999</v>
+        <v>39.91028714999999</v>
       </c>
       <c r="G8" t="n">
-        <v>12.78172595</v>
+        <v>11.9991713</v>
       </c>
       <c r="H8" t="n">
-        <v>3.782347474999999</v>
+        <v>3.521495924999999</v>
       </c>
       <c r="I8" t="n">
-        <v>55.03967704999999</v>
+        <v>54.38754817499998</v>
       </c>
       <c r="J8" t="n">
-        <v>39.25815827499999</v>
+        <v>38.99730672499999</v>
       </c>
       <c r="K8" t="n">
-        <v>116.8614944</v>
+        <v>117.513623275</v>
       </c>
       <c r="L8" t="n">
-        <v>28.43281894999999</v>
+        <v>27.51983852499999</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -4133,34 +4133,34 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>85.99945128999998</v>
+        <v>84.14846972249998</v>
       </c>
       <c r="D9" t="n">
-        <v>21.7846292175</v>
+        <v>21.07271323</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>42.99972564499999</v>
+        <v>42.28780965749999</v>
       </c>
       <c r="G9" t="n">
-        <v>12.814487775</v>
+        <v>11.96018859</v>
       </c>
       <c r="H9" t="n">
-        <v>3.844346332499999</v>
+        <v>4.413879122499999</v>
       </c>
       <c r="I9" t="n">
-        <v>59.23141015999999</v>
+        <v>59.80094294999999</v>
       </c>
       <c r="J9" t="n">
-        <v>42.99972564499999</v>
+        <v>42.71495924999999</v>
       </c>
       <c r="K9" t="n">
-        <v>128.14487775</v>
+        <v>127.4329617625</v>
       </c>
       <c r="L9" t="n">
-        <v>30.0428546725</v>
+        <v>29.4733218825</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5832</v>
+        <v>11664</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5400</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>378</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1080</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>486</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>162</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1620</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>378</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2916</v>
+        <v>14580</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2160</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>270</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>378</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>540</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>16200</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5400</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21600</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>

--- a/Instances/04_NonStationary.xlsx
+++ b/Instances/04_NonStationary.xlsx
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>134.8351536399082</v>
+        <v>192.53025</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>605</v>
+        <v>1899</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>42.38554657471128</v>
+        <v>69.84258749999999</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>155</v>
+        <v>467</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>14.47693718210702</v>
+        <v>16.99281944444444</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>20.73473530168958</v>
+        <v>24.33163958333333</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>305</v>
+        <v>967</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>23.33248609447879</v>
+        <v>34.17756805555555</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>95</v>
+        <v>274</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>6.194821101002734</v>
+        <v>10.32906666666667</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>2.858680686031278</v>
+        <v>3.395127777777777</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>422</v>
+        <v>1337</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>40.72217334344644</v>
+        <v>50.39046736111111</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>303</v>
+        <v>958</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>28.35422978847698</v>
+        <v>36.08999999999999</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>905</v>
+        <v>2855</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>77.97659080617028</v>
+        <v>107.5345375</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>215</v>
+        <v>669</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>19.36532000516009</v>
+        <v>25.1899375</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>119.672242948371</v>
+        <v>184.4091180555555</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>58.16980769253966</v>
+        <v>68.33114583333332</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>11.47555893570064</v>
+        <v>16.38200347222222</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>18.50839115774448</v>
+        <v>23.33592083333333</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2691,13 +2691,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>19.56977651460847</v>
+        <v>33.50895625</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2720,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>6.482433225380097</v>
+        <v>10.12695</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2749,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>1.983239957085875</v>
+        <v>3.329402777777777</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>3041</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>27.32921755649127</v>
+        <v>43.76940972222222</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>3041</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>28.27276153800178</v>
+        <v>46.46547222222221</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>3041</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>35.28051541645419</v>
+        <v>57.51599999999999</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>3041</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>119.1990725932097</v>
+        <v>176.9748680555555</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -2981,10 +2981,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="D2" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2993,22 +2993,22 @@
         <v>303</v>
       </c>
       <c r="G2" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I2" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J2" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K2" t="n">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="L2" t="n">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3052,10 +3052,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D3" t="n">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -3064,22 +3064,22 @@
         <v>305</v>
       </c>
       <c r="G3" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H3" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I3" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="J3" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K3" t="n">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="L3" t="n">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3123,34 +3123,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="D4" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G4" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" t="n">
         <v>421</v>
       </c>
       <c r="J4" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="K4" t="n">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="L4" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3194,10 +3194,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="D5" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3206,19 +3206,19 @@
         <v>297</v>
       </c>
       <c r="G5" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H5" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I5" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K5" t="n">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="L5" t="n">
         <v>206</v>
@@ -3265,34 +3265,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="D6" t="n">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G6" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H6" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I6" t="n">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K6" t="n">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="L6" t="n">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3336,34 +3336,34 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D7" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G7" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H7" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I7" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J7" t="n">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K7" t="n">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="L7" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -3407,34 +3407,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D8" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G8" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I8" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="J8" t="n">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K8" t="n">
         <v>901</v>
       </c>
       <c r="L8" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -3478,31 +3478,31 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="D9" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G9" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H9" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I9" t="n">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J9" t="n">
         <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="L9" t="n">
         <v>207</v>
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15.125</v>
+        <v>14.95</v>
       </c>
       <c r="D2" t="n">
-        <v>3.624999999999999</v>
+        <v>3.824999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3648,22 +3648,22 @@
         <v>7.574999999999998</v>
       </c>
       <c r="G2" t="n">
-        <v>2.125</v>
+        <v>2.35</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.6999999999999998</v>
       </c>
       <c r="I2" t="n">
-        <v>10.4</v>
+        <v>10.45</v>
       </c>
       <c r="J2" t="n">
-        <v>7.549999999999998</v>
+        <v>7.624999999999998</v>
       </c>
       <c r="K2" t="n">
-        <v>22.525</v>
+        <v>22.54999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>4.949999999999999</v>
+        <v>5.149999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>28.35749999999999</v>
+        <v>28.30999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>7.314999999999998</v>
+        <v>6.839999999999998</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -3719,22 +3719,22 @@
         <v>14.4875</v>
       </c>
       <c r="G3" t="n">
-        <v>4.227499999999999</v>
+        <v>3.657499999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1.757499999999999</v>
+        <v>1.425</v>
       </c>
       <c r="I3" t="n">
-        <v>19.95</v>
+        <v>20.09249999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>14.155</v>
+        <v>14.1075</v>
       </c>
       <c r="K3" t="n">
-        <v>43.41499999999998</v>
+        <v>42.89249999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>10.26</v>
+        <v>10.0225</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3778,34 +3778,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>41.12424999999999</v>
+        <v>40.51449999999998</v>
       </c>
       <c r="D4" t="n">
-        <v>9.891499999999997</v>
+        <v>9.755999999999997</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>20.52824999999999</v>
+        <v>20.66374999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>6.165249999999998</v>
+        <v>5.961999999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1.761499999999999</v>
+        <v>1.693749999999999</v>
       </c>
       <c r="I4" t="n">
         <v>28.52274999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>19.85074999999999</v>
+        <v>20.46049999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>60.90724999999998</v>
+        <v>60.22974999999998</v>
       </c>
       <c r="L4" t="n">
-        <v>14.634</v>
+        <v>14.49849999999999</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3849,10 +3849,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>52.014875</v>
+        <v>51.2411</v>
       </c>
       <c r="D5" t="n">
-        <v>12.89625</v>
+        <v>12.0365</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3861,19 +3861,19 @@
         <v>25.534575</v>
       </c>
       <c r="G5" t="n">
-        <v>7.39385</v>
+        <v>7.9097</v>
       </c>
       <c r="H5" t="n">
-        <v>2.665225</v>
+        <v>2.493275</v>
       </c>
       <c r="I5" t="n">
-        <v>36.023525</v>
+        <v>36.1095</v>
       </c>
       <c r="J5" t="n">
-        <v>25.7925</v>
+        <v>26.1364</v>
       </c>
       <c r="K5" t="n">
-        <v>78.06529999999999</v>
+        <v>77.54944999999999</v>
       </c>
       <c r="L5" t="n">
         <v>17.71085</v>
@@ -3920,34 +3920,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>60.19796999999999</v>
+        <v>61.83600999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>16.4827775</v>
+        <v>14.6399825</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>29.9966075</v>
+        <v>30.508495</v>
       </c>
       <c r="G6" t="n">
-        <v>8.906842499999998</v>
+        <v>9.828239999999997</v>
       </c>
       <c r="H6" t="n">
-        <v>4.197477499999999</v>
+        <v>3.685589999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>43.20330499999999</v>
+        <v>42.69141749999999</v>
       </c>
       <c r="J6" t="n">
-        <v>30.71325</v>
+        <v>30.91800499999999</v>
       </c>
       <c r="K6" t="n">
-        <v>92.24212749999998</v>
+        <v>92.44688249999999</v>
       </c>
       <c r="L6" t="n">
-        <v>21.29452</v>
+        <v>22.11354</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3991,34 +3991,34 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>70.75240899999999</v>
+        <v>71.4552475</v>
       </c>
       <c r="D7" t="n">
-        <v>17.805242</v>
+        <v>17.5709625</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>35.02478524999999</v>
+        <v>34.67336599999999</v>
       </c>
       <c r="G7" t="n">
-        <v>11.12827625</v>
+        <v>10.5425775</v>
       </c>
       <c r="H7" t="n">
-        <v>2.811354</v>
+        <v>3.397052749999999</v>
       </c>
       <c r="I7" t="n">
-        <v>48.96441549999999</v>
+        <v>48.84727574999999</v>
       </c>
       <c r="J7" t="n">
-        <v>34.79050574999999</v>
+        <v>35.610484</v>
       </c>
       <c r="K7" t="n">
-        <v>105.07435575</v>
+        <v>105.30863525</v>
       </c>
       <c r="L7" t="n">
-        <v>23.31081025</v>
+        <v>24.5993475</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -4062,34 +4062,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>77.60333612499998</v>
+        <v>77.34248457499999</v>
       </c>
       <c r="D8" t="n">
-        <v>19.43344047499999</v>
+        <v>18.7813116</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>39.91028714999999</v>
+        <v>39.25815827499999</v>
       </c>
       <c r="G8" t="n">
-        <v>11.9991713</v>
+        <v>11.868745525</v>
       </c>
       <c r="H8" t="n">
-        <v>3.521495924999999</v>
+        <v>4.434476349999999</v>
       </c>
       <c r="I8" t="n">
-        <v>54.38754817499998</v>
+        <v>54.64839972499998</v>
       </c>
       <c r="J8" t="n">
-        <v>38.99730672499999</v>
+        <v>38.08432629999999</v>
       </c>
       <c r="K8" t="n">
         <v>117.513623275</v>
       </c>
       <c r="L8" t="n">
-        <v>27.51983852499999</v>
+        <v>26.99813542499999</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -4133,31 +4133,31 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>84.14846972249998</v>
+        <v>85.28753530249999</v>
       </c>
       <c r="D9" t="n">
-        <v>21.07271323</v>
+        <v>20.9303300325</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>42.28780965749999</v>
+        <v>42.14542646</v>
       </c>
       <c r="G9" t="n">
-        <v>11.96018859</v>
+        <v>13.66878696</v>
       </c>
       <c r="H9" t="n">
-        <v>4.413879122499999</v>
+        <v>3.986729529999999</v>
       </c>
       <c r="I9" t="n">
-        <v>59.80094294999999</v>
+        <v>59.51617655499999</v>
       </c>
       <c r="J9" t="n">
         <v>42.71495924999999</v>
       </c>
       <c r="K9" t="n">
-        <v>127.4329617625</v>
+        <v>129.1415601325</v>
       </c>
       <c r="L9" t="n">
         <v>29.4733218825</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11664</v>
+        <v>48618.75</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1080</v>
+        <v>23970</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>810</v>
+        <v>7281.25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1512</v>
+        <v>2096.25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>540</v>
+        <v>12005</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>324</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>270</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3024</v>
+        <v>8382.5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1080</v>
+        <v>15037.5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4860</v>
+        <v>45037.5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1512</v>
+        <v>4192.5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14580</v>
+        <v>64825</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3240</v>
+        <v>5992.5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1350</v>
+        <v>1456.25</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1134</v>
+        <v>6288.75</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2700</v>
+        <v>12005</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>486</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>108</v>
+        <v>597.5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27000</v>
+        <v>149781.25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21600</v>
+        <v>149781.25</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5400</v>
+        <v>119825</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16200</v>
+        <v>149781.25</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_NonStationary.xlsx
+++ b/Instances/04_NonStationary.xlsx
@@ -2262,7 +2262,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>192.53025</v>
+        <v>104.046525</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1899</v>
+        <v>1827</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>69.84258749999999</v>
+        <v>37.80940275</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>16.99281944444444</v>
+        <v>9.270640500000001</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2349,7 +2349,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>24.33163958333333</v>
+        <v>13.060736625</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>967</v>
+        <v>905</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>34.17756805555555</v>
+        <v>18.28677825</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>10.32906666666667</v>
+        <v>5.477544000000001</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>3.395127777777777</v>
+        <v>1.68762</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1337</v>
+        <v>1272</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>50.39046736111111</v>
+        <v>27.25142925</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>958</v>
+        <v>914</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>36.08999999999999</v>
+        <v>19.3752</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2855</v>
+        <v>2746</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>107.5345375</v>
+        <v>58.221759375</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>669</v>
+        <v>624</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>25.1899375</v>
+        <v>13.52145375</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2581,7 +2581,7 @@
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>184.4091180555555</v>
+        <v>99.65773124999998</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2610,7 +2610,7 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>68.33114583333332</v>
+        <v>36.99118125</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2639,7 +2639,7 @@
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>16.38200347222222</v>
+        <v>8.937402375000001</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2668,7 +2668,7 @@
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>23.33592083333333</v>
+        <v>12.52625475</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2697,7 +2697,7 @@
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>33.50895625</v>
+        <v>17.929036125</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2726,7 +2726,7 @@
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>10.12695</v>
+        <v>5.370360750000001</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2755,7 +2755,7 @@
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>3.329402777777777</v>
+        <v>1.65495</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9208</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>43.76940972222222</v>
+        <v>23.60589375</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9208</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>46.46547222222221</v>
+        <v>25.059945</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9208</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>57.51599999999999</v>
+        <v>31.01976000000001</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>9208</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>176.9748680555555</v>
+        <v>95.44679625000001</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -2981,34 +2981,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="D2" t="n">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="G2" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J2" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K2" t="n">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="L2" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3052,34 +3052,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D3" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G3" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="H3" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I3" t="n">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J3" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="L3" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3123,34 +3123,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D4" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G4" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J4" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K4" t="n">
-        <v>889</v>
+        <v>906</v>
       </c>
       <c r="L4" t="n">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3194,34 +3194,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="D5" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G5" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I5" t="n">
         <v>420</v>
       </c>
       <c r="J5" t="n">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K5" t="n">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="L5" t="n">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D6" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -3277,22 +3277,22 @@
         <v>298</v>
       </c>
       <c r="G6" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" t="n">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="J6" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K6" t="n">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="L6" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3336,34 +3336,34 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="D7" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G7" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I7" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J7" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="L7" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -3407,34 +3407,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D8" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G8" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H8" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J8" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K8" t="n">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="L8" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D9" t="n">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -3490,22 +3490,22 @@
         <v>296</v>
       </c>
       <c r="G9" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" t="n">
         <v>418</v>
       </c>
       <c r="J9" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K9" t="n">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="L9" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -3636,34 +3636,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14.95</v>
+        <v>15.275</v>
       </c>
       <c r="D2" t="n">
-        <v>3.824999999999999</v>
+        <v>3.599999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.574999999999998</v>
+        <v>7.299999999999998</v>
       </c>
       <c r="G2" t="n">
-        <v>2.35</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.7499999999999998</v>
       </c>
       <c r="I2" t="n">
-        <v>10.45</v>
+        <v>10.475</v>
       </c>
       <c r="J2" t="n">
-        <v>7.624999999999998</v>
+        <v>7.449999999999998</v>
       </c>
       <c r="K2" t="n">
-        <v>22.54999999999999</v>
+        <v>22.65</v>
       </c>
       <c r="L2" t="n">
-        <v>5.149999999999999</v>
+        <v>5.124999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3707,34 +3707,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>28.30999999999999</v>
+        <v>28.40499999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>6.839999999999998</v>
+        <v>6.887499999999998</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>14.4875</v>
+        <v>14.3925</v>
       </c>
       <c r="G3" t="n">
-        <v>3.657499999999999</v>
+        <v>4.417499999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1.425</v>
+        <v>1.14</v>
       </c>
       <c r="I3" t="n">
-        <v>20.09249999999999</v>
+        <v>19.90249999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>14.1075</v>
+        <v>14.25</v>
       </c>
       <c r="K3" t="n">
-        <v>42.89249999999999</v>
+        <v>42.84499999999998</v>
       </c>
       <c r="L3" t="n">
-        <v>10.0225</v>
+        <v>9.594999999999997</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3778,34 +3778,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.51449999999998</v>
+        <v>40.44674999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>9.755999999999997</v>
+        <v>10.298</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>20.66374999999999</v>
+        <v>20.32499999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>5.961999999999998</v>
+        <v>5.758749999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1.693749999999999</v>
+        <v>1.355</v>
       </c>
       <c r="I4" t="n">
-        <v>28.52274999999999</v>
+        <v>28.45499999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>20.46049999999999</v>
+        <v>20.73149999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>60.22974999999998</v>
+        <v>61.38149999999998</v>
       </c>
       <c r="L4" t="n">
-        <v>14.49849999999999</v>
+        <v>14.2275</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3849,34 +3849,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>51.2411</v>
+        <v>51.9289</v>
       </c>
       <c r="D5" t="n">
-        <v>12.0365</v>
+        <v>12.20845</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.534575</v>
+        <v>25.1047</v>
       </c>
       <c r="G5" t="n">
-        <v>7.9097</v>
+        <v>7.2219</v>
       </c>
       <c r="H5" t="n">
-        <v>2.493275</v>
+        <v>2.23535</v>
       </c>
       <c r="I5" t="n">
         <v>36.1095</v>
       </c>
       <c r="J5" t="n">
-        <v>26.1364</v>
+        <v>25.534575</v>
       </c>
       <c r="K5" t="n">
-        <v>77.54944999999999</v>
+        <v>77.635425</v>
       </c>
       <c r="L5" t="n">
-        <v>17.71085</v>
+        <v>18.312675</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3920,10 +3920,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>61.83600999999999</v>
+        <v>61.93838749999999</v>
       </c>
       <c r="D6" t="n">
-        <v>14.6399825</v>
+        <v>14.74236</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -3932,22 +3932,22 @@
         <v>30.508495</v>
       </c>
       <c r="G6" t="n">
-        <v>9.828239999999997</v>
+        <v>9.725862499999998</v>
       </c>
       <c r="H6" t="n">
-        <v>3.685589999999999</v>
+        <v>3.583212499999999</v>
       </c>
       <c r="I6" t="n">
-        <v>42.69141749999999</v>
+        <v>43.10092749999999</v>
       </c>
       <c r="J6" t="n">
-        <v>30.91800499999999</v>
+        <v>30.30373999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>92.44688249999999</v>
+        <v>92.34450499999998</v>
       </c>
       <c r="L6" t="n">
-        <v>22.11354</v>
+        <v>22.0111625</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3991,34 +3991,34 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>71.4552475</v>
+        <v>69.93243074999999</v>
       </c>
       <c r="D7" t="n">
-        <v>17.5709625</v>
+        <v>17.336683</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>34.67336599999999</v>
+        <v>35.02478524999999</v>
       </c>
       <c r="G7" t="n">
-        <v>10.5425775</v>
+        <v>10.776857</v>
       </c>
       <c r="H7" t="n">
-        <v>3.397052749999999</v>
+        <v>3.0456335</v>
       </c>
       <c r="I7" t="n">
-        <v>48.84727574999999</v>
+        <v>49.19869499999999</v>
       </c>
       <c r="J7" t="n">
-        <v>35.610484</v>
+        <v>35.14192499999999</v>
       </c>
       <c r="K7" t="n">
-        <v>105.30863525</v>
+        <v>105.07435575</v>
       </c>
       <c r="L7" t="n">
-        <v>24.5993475</v>
+        <v>24.1307885</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -4062,34 +4062,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>77.34248457499999</v>
+        <v>77.86418767499998</v>
       </c>
       <c r="D8" t="n">
-        <v>18.7813116</v>
+        <v>19.30301469999999</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>39.25815827499999</v>
+        <v>38.99730672499999</v>
       </c>
       <c r="G8" t="n">
-        <v>11.868745525</v>
+        <v>11.086190875</v>
       </c>
       <c r="H8" t="n">
-        <v>4.434476349999999</v>
+        <v>3.912773249999999</v>
       </c>
       <c r="I8" t="n">
-        <v>54.64839972499998</v>
+        <v>54.90925127499999</v>
       </c>
       <c r="J8" t="n">
-        <v>38.08432629999999</v>
+        <v>38.73645517499999</v>
       </c>
       <c r="K8" t="n">
-        <v>117.513623275</v>
+        <v>118.16575215</v>
       </c>
       <c r="L8" t="n">
-        <v>26.99813542499999</v>
+        <v>27.65026429999999</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -4133,10 +4133,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>85.28753530249999</v>
+        <v>85.00276890749998</v>
       </c>
       <c r="D9" t="n">
-        <v>20.9303300325</v>
+        <v>21.927012415</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -4145,22 +4145,22 @@
         <v>42.14542646</v>
       </c>
       <c r="G9" t="n">
-        <v>13.66878696</v>
+        <v>12.6721045775</v>
       </c>
       <c r="H9" t="n">
-        <v>3.986729529999999</v>
+        <v>4.129112727499999</v>
       </c>
       <c r="I9" t="n">
         <v>59.51617655499999</v>
       </c>
       <c r="J9" t="n">
-        <v>42.71495924999999</v>
+        <v>42.43019285499999</v>
       </c>
       <c r="K9" t="n">
-        <v>129.1415601325</v>
+        <v>128.5720273425</v>
       </c>
       <c r="L9" t="n">
-        <v>29.4733218825</v>
+        <v>29.04617228999999</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>48618.75</v>
+        <v>81093.75</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23970</v>
+        <v>24030</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7281.25</v>
+        <v>4413.75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2096.25</v>
+        <v>10418.75</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12005</v>
+        <v>11895</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4525</v>
+        <v>888.75</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1195</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8382.5</v>
+        <v>20987.5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15037.5</v>
+        <v>8970</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>45037.5</v>
+        <v>27093.75</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4192.5</v>
+        <v>8335</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>64825</v>
+        <v>64875</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5992.5</v>
+        <v>12015</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1456.25</v>
+        <v>7356.25</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6288.75</v>
+        <v>2083.75</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12005</v>
+        <v>11895</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1810</v>
+        <v>2666.25</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>597.5</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>149781.25</v>
+        <v>59837.5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>149781.25</v>
+        <v>149593.75</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>119825</v>
+        <v>29918.75</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>149781.25</v>
+        <v>149593.75</v>
       </c>
     </row>
   </sheetData>
@@ -4488,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>

--- a/Instances/04_NonStationary.xlsx
+++ b/Instances/04_NonStationary.xlsx
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>104.046525</v>
+        <v>56.61924299999999</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1827</v>
+        <v>1216</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>37.80940275</v>
+        <v>20.61901943181818</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>446</v>
+        <v>302</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>9.270640500000001</v>
+        <v>5.202786272727273</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2349,7 +2349,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>13.060736625</v>
+        <v>7.106943886363637</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>905</v>
+        <v>599</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>18.28677825</v>
+        <v>9.985088249999999</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>5.477544000000001</v>
+        <v>3.029773090909091</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>1.68762</v>
+        <v>1.056505909090909</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1272</v>
+        <v>851</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>27.25142925</v>
+        <v>14.83342997727273</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>914</v>
+        <v>613</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>19.3752</v>
+        <v>10.61247272727273</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2746</v>
+        <v>1818</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>58.221759375</v>
+        <v>31.61007480681818</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>624</v>
+        <v>413</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>13.52145375</v>
+        <v>7.357641136363637</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3303</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>99.65773124999998</v>
+        <v>54.23098275</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2610,7 +2610,7 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>36.99118125</v>
+        <v>20.17280965909091</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2639,7 +2639,7 @@
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>8.937402375000001</v>
+        <v>5.015769340909092</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>12.52625475</v>
+        <v>6.816107863636363</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2697,7 +2697,7 @@
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>17.929036125</v>
+        <v>9.789751124999999</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2726,7 +2726,7 @@
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>5.370360750000001</v>
+        <v>2.970487227272728</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2755,7 +2755,7 @@
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>1.65495</v>
+        <v>1.036053409090909</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2778,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>9208</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>23.60589375</v>
+        <v>12.89934306818182</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2807,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>9208</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>25.059945</v>
+        <v>13.69390336363636</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2836,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>9208</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>31.01976000000001</v>
+        <v>16.95061963636364</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2865,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>9208</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>95.44679625000001</v>
+        <v>52.15650729545455</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -2897,7 +2897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2981,34 +2981,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D2" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G2" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I2" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="J2" t="n">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K2" t="n">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="L2" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3052,10 +3052,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D3" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -3064,22 +3064,22 @@
         <v>303</v>
       </c>
       <c r="G3" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H3" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I3" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K3" t="n">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="L3" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3126,31 +3126,31 @@
         <v>597</v>
       </c>
       <c r="D4" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G4" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I4" t="n">
         <v>420</v>
       </c>
       <c r="J4" t="n">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="K4" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="L4" t="n">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3194,31 +3194,31 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D5" t="n">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G5" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H5" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I5" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J5" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="L5" t="n">
         <v>213</v>
@@ -3268,31 +3268,31 @@
         <v>605</v>
       </c>
       <c r="D6" t="n">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G6" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H6" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I6" t="n">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J6" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="K6" t="n">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="L6" t="n">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3336,34 +3336,34 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D7" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G7" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H7" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I7" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K7" t="n">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="L7" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -3407,34 +3407,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D8" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G8" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H8" t="n">
         <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="J8" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K8" t="n">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="L8" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -3478,66 +3478,634 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>604</v>
+      </c>
+      <c r="D9" t="n">
+        <v>149</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>293</v>
+      </c>
+      <c r="G9" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" t="n">
+        <v>32</v>
+      </c>
+      <c r="I9" t="n">
+        <v>415</v>
+      </c>
+      <c r="J9" t="n">
+        <v>300</v>
+      </c>
+      <c r="K9" t="n">
+        <v>893</v>
+      </c>
+      <c r="L9" t="n">
+        <v>220</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>601</v>
+      </c>
+      <c r="D10" t="n">
+        <v>153</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>302</v>
+      </c>
+      <c r="G10" t="n">
+        <v>90</v>
+      </c>
+      <c r="H10" t="n">
+        <v>33</v>
+      </c>
+      <c r="I10" t="n">
+        <v>418</v>
+      </c>
+      <c r="J10" t="n">
+        <v>295</v>
+      </c>
+      <c r="K10" t="n">
+        <v>895</v>
+      </c>
+      <c r="L10" t="n">
+        <v>197</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>604</v>
+      </c>
+      <c r="D11" t="n">
+        <v>150</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>300</v>
+      </c>
+      <c r="G11" t="n">
+        <v>94</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>419</v>
+      </c>
+      <c r="J11" t="n">
+        <v>301</v>
+      </c>
+      <c r="K11" t="n">
+        <v>907</v>
+      </c>
+      <c r="L11" t="n">
+        <v>213</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>594</v>
+      </c>
+      <c r="D12" t="n">
+        <v>148</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>297</v>
+      </c>
+      <c r="G12" t="n">
+        <v>98</v>
+      </c>
+      <c r="H12" t="n">
+        <v>32</v>
+      </c>
+      <c r="I12" t="n">
+        <v>421</v>
+      </c>
+      <c r="J12" t="n">
+        <v>296</v>
+      </c>
+      <c r="K12" t="n">
+        <v>903</v>
+      </c>
+      <c r="L12" t="n">
+        <v>207</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>605</v>
+      </c>
+      <c r="D13" t="n">
+        <v>150</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>299</v>
+      </c>
+      <c r="G13" t="n">
+        <v>87</v>
+      </c>
+      <c r="H13" t="n">
+        <v>41</v>
+      </c>
+      <c r="I13" t="n">
+        <v>420</v>
+      </c>
+      <c r="J13" t="n">
+        <v>303</v>
+      </c>
+      <c r="K13" t="n">
+        <v>901</v>
+      </c>
+      <c r="L13" t="n">
+        <v>205</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>605</v>
+      </c>
+      <c r="D14" t="n">
+        <v>152</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>300</v>
+      </c>
+      <c r="G14" t="n">
+        <v>90</v>
+      </c>
+      <c r="H14" t="n">
+        <v>30</v>
+      </c>
+      <c r="I14" t="n">
+        <v>418</v>
+      </c>
+      <c r="J14" t="n">
+        <v>300</v>
+      </c>
+      <c r="K14" t="n">
+        <v>897</v>
+      </c>
+      <c r="L14" t="n">
+        <v>206</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>596</v>
+      </c>
+      <c r="D15" t="n">
+        <v>154</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>305</v>
+      </c>
+      <c r="G15" t="n">
+        <v>87</v>
+      </c>
+      <c r="H15" t="n">
+        <v>26</v>
+      </c>
+      <c r="I15" t="n">
+        <v>421</v>
+      </c>
+      <c r="J15" t="n">
+        <v>304</v>
+      </c>
+      <c r="K15" t="n">
+        <v>896</v>
+      </c>
+      <c r="L15" t="n">
+        <v>210</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
         <v>597</v>
       </c>
-      <c r="D9" t="n">
-        <v>154</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>296</v>
-      </c>
-      <c r="G9" t="n">
-        <v>89</v>
-      </c>
-      <c r="H9" t="n">
-        <v>29</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="D16" t="n">
+        <v>155</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>301</v>
+      </c>
+      <c r="G16" t="n">
+        <v>88</v>
+      </c>
+      <c r="H16" t="n">
+        <v>35</v>
+      </c>
+      <c r="I16" t="n">
+        <v>420</v>
+      </c>
+      <c r="J16" t="n">
+        <v>297</v>
+      </c>
+      <c r="K16" t="n">
+        <v>904</v>
+      </c>
+      <c r="L16" t="n">
+        <v>202</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>603</v>
+      </c>
+      <c r="D17" t="n">
+        <v>148</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>302</v>
+      </c>
+      <c r="G17" t="n">
+        <v>88</v>
+      </c>
+      <c r="H17" t="n">
+        <v>30</v>
+      </c>
+      <c r="I17" t="n">
         <v>418</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J17" t="n">
         <v>298</v>
       </c>
-      <c r="K9" t="n">
-        <v>903</v>
-      </c>
-      <c r="L9" t="n">
-        <v>204</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="K17" t="n">
+        <v>891</v>
+      </c>
+      <c r="L17" t="n">
+        <v>206</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3552,7 +4120,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3636,34 +4204,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15.275</v>
+        <v>15.125</v>
       </c>
       <c r="D2" t="n">
-        <v>3.599999999999999</v>
+        <v>3.699999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.299999999999998</v>
+        <v>7.274999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>2.199999999999999</v>
+        <v>2.375</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7499999999999998</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>10.475</v>
+        <v>10.55</v>
       </c>
       <c r="J2" t="n">
-        <v>7.449999999999998</v>
+        <v>7.649999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>22.65</v>
+        <v>22.54999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>5.124999999999999</v>
+        <v>5.099999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3707,10 +4275,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>28.40499999999999</v>
+        <v>28.49999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>6.887499999999998</v>
+        <v>7.219999999999998</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -3719,22 +4287,22 @@
         <v>14.3925</v>
       </c>
       <c r="G3" t="n">
-        <v>4.417499999999999</v>
+        <v>3.989999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1.14</v>
+        <v>1.567499999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>19.90249999999999</v>
+        <v>20.04499999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>14.25</v>
+        <v>14.345</v>
       </c>
       <c r="K3" t="n">
-        <v>42.84499999999998</v>
+        <v>42.74999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>9.594999999999997</v>
+        <v>9.784999999999997</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3781,31 +4349,31 @@
         <v>40.44674999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>10.298</v>
+        <v>10.4335</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>20.32499999999999</v>
+        <v>19.78299999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>5.758749999999998</v>
+        <v>6.097499999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1.355</v>
+        <v>1.829249999999999</v>
       </c>
       <c r="I4" t="n">
         <v>28.45499999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>20.73149999999999</v>
+        <v>19.98624999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>61.38149999999998</v>
+        <v>61.44924999999998</v>
       </c>
       <c r="L4" t="n">
-        <v>14.2275</v>
+        <v>13.6855</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3849,31 +4417,31 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>51.9289</v>
+        <v>51.75695</v>
       </c>
       <c r="D5" t="n">
-        <v>12.20845</v>
+        <v>13.24015</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.1047</v>
+        <v>25.362625</v>
       </c>
       <c r="G5" t="n">
-        <v>7.2219</v>
+        <v>6.706049999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2.23535</v>
+        <v>3.7829</v>
       </c>
       <c r="I5" t="n">
-        <v>36.1095</v>
+        <v>36.28145</v>
       </c>
       <c r="J5" t="n">
-        <v>25.534575</v>
+        <v>25.7925</v>
       </c>
       <c r="K5" t="n">
-        <v>77.635425</v>
+        <v>77.03359999999999</v>
       </c>
       <c r="L5" t="n">
         <v>18.312675</v>
@@ -3923,31 +4491,31 @@
         <v>61.93838749999999</v>
       </c>
       <c r="D6" t="n">
-        <v>14.74236</v>
+        <v>15.6637575</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>30.508495</v>
+        <v>29.3823425</v>
       </c>
       <c r="G6" t="n">
-        <v>9.725862499999998</v>
+        <v>9.418729999999998</v>
       </c>
       <c r="H6" t="n">
-        <v>3.583212499999999</v>
+        <v>2.7641925</v>
       </c>
       <c r="I6" t="n">
-        <v>43.10092749999999</v>
+        <v>42.69141749999999</v>
       </c>
       <c r="J6" t="n">
-        <v>30.30373999999999</v>
+        <v>31.2251375</v>
       </c>
       <c r="K6" t="n">
-        <v>92.34450499999998</v>
+        <v>91.11597499999998</v>
       </c>
       <c r="L6" t="n">
-        <v>22.0111625</v>
+        <v>21.29452</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3991,34 +4559,34 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>69.93243074999999</v>
+        <v>69.34673199999999</v>
       </c>
       <c r="D7" t="n">
-        <v>17.336683</v>
+        <v>17.92238175</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>35.02478524999999</v>
+        <v>34.90764549999999</v>
       </c>
       <c r="G7" t="n">
-        <v>10.776857</v>
+        <v>10.5425775</v>
       </c>
       <c r="H7" t="n">
-        <v>3.0456335</v>
+        <v>4.217031</v>
       </c>
       <c r="I7" t="n">
-        <v>49.19869499999999</v>
+        <v>48.61299624999999</v>
       </c>
       <c r="J7" t="n">
-        <v>35.14192499999999</v>
+        <v>35.25906474999999</v>
       </c>
       <c r="K7" t="n">
-        <v>105.07435575</v>
+        <v>105.77719425</v>
       </c>
       <c r="L7" t="n">
-        <v>24.1307885</v>
+        <v>24.71648725</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -4062,34 +4630,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>77.86418767499998</v>
+        <v>78.25546499999999</v>
       </c>
       <c r="D8" t="n">
-        <v>19.30301469999999</v>
+        <v>19.43344047499999</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>38.99730672499999</v>
+        <v>38.86688094999999</v>
       </c>
       <c r="G8" t="n">
-        <v>11.086190875</v>
+        <v>11.868745525</v>
       </c>
       <c r="H8" t="n">
         <v>3.912773249999999</v>
       </c>
       <c r="I8" t="n">
-        <v>54.90925127499999</v>
+        <v>53.99627084999999</v>
       </c>
       <c r="J8" t="n">
-        <v>38.73645517499999</v>
+        <v>39.25815827499999</v>
       </c>
       <c r="K8" t="n">
-        <v>118.16575215</v>
+        <v>117.12234595</v>
       </c>
       <c r="L8" t="n">
-        <v>27.65026429999999</v>
+        <v>28.17196739999999</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -4133,34 +4701,34 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>85.00276890749998</v>
+        <v>85.99945128999998</v>
       </c>
       <c r="D9" t="n">
-        <v>21.927012415</v>
+        <v>21.2150964275</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>42.14542646</v>
+        <v>41.71827686749999</v>
       </c>
       <c r="G9" t="n">
-        <v>12.6721045775</v>
+        <v>14.23831975</v>
       </c>
       <c r="H9" t="n">
-        <v>4.129112727499999</v>
+        <v>4.556262319999999</v>
       </c>
       <c r="I9" t="n">
-        <v>59.51617655499999</v>
+        <v>59.08902696249999</v>
       </c>
       <c r="J9" t="n">
-        <v>42.43019285499999</v>
+        <v>42.71495924999999</v>
       </c>
       <c r="K9" t="n">
-        <v>128.5720273425</v>
+        <v>127.1481953675</v>
       </c>
       <c r="L9" t="n">
-        <v>29.04617228999999</v>
+        <v>31.32430345</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -4193,6 +4761,574 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>92.04007152774997</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23.43116629575</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>46.24975308049999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13.7830389975</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.053780965749999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>64.01455889949999</v>
+      </c>
+      <c r="J10" t="n">
+        <v>45.17773893624999</v>
+      </c>
+      <c r="K10" t="n">
+        <v>137.06466558625</v>
+      </c>
+      <c r="L10" t="n">
+        <v>30.16954091674999</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>98.3495555449</v>
+      </c>
+      <c r="D11" t="n">
+        <v>24.42455849625</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>48.84911699249999</v>
+      </c>
+      <c r="G11" t="n">
+        <v>15.30605665765</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.070759749375</v>
+      </c>
+      <c r="I11" t="n">
+        <v>68.22593339952499</v>
+      </c>
+      <c r="J11" t="n">
+        <v>49.011947382475</v>
+      </c>
+      <c r="K11" t="n">
+        <v>147.687163707325</v>
+      </c>
+      <c r="L11" t="n">
+        <v>34.682873064675</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>101.899126480635</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25.38900794467</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>50.9495632403175</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16.811640395795</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.48951523128</v>
+      </c>
+      <c r="I12" t="n">
+        <v>72.22143476152749</v>
+      </c>
+      <c r="J12" t="n">
+        <v>50.77801588934</v>
+      </c>
+      <c r="K12" t="n">
+        <v>154.9072579326825</v>
+      </c>
+      <c r="L12" t="n">
+        <v>35.5103016523425</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>108.5325326072487</v>
+      </c>
+      <c r="D13" t="n">
+        <v>26.9088923819625</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>53.63839214804524</v>
+      </c>
+      <c r="G13" t="n">
+        <v>15.60715758153825</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7.355097251069749</v>
+      </c>
+      <c r="I13" t="n">
+        <v>75.344898669495</v>
+      </c>
+      <c r="J13" t="n">
+        <v>54.35596261156424</v>
+      </c>
+      <c r="K13" t="n">
+        <v>161.6327469076547</v>
+      </c>
+      <c r="L13" t="n">
+        <v>36.77548625534875</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>112.8042793465239</v>
+      </c>
+      <c r="D14" t="n">
+        <v>28.3409098523498</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>55.93600628753249</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16.78080188625975</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5.59360062875325</v>
+      </c>
+      <c r="I14" t="n">
+        <v>77.93750209396194</v>
+      </c>
+      <c r="J14" t="n">
+        <v>55.93600628753249</v>
+      </c>
+      <c r="K14" t="n">
+        <v>167.2486587997222</v>
+      </c>
+      <c r="L14" t="n">
+        <v>38.40939098410565</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>114.9135792421081</v>
+      </c>
+      <c r="D15" t="n">
+        <v>29.69243490484001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>58.80644575309223</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16.77429764104598</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.013008490427534</v>
+      </c>
+      <c r="I15" t="n">
+        <v>81.17217594115353</v>
+      </c>
+      <c r="J15" t="n">
+        <v>58.61363773422963</v>
+      </c>
+      <c r="K15" t="n">
+        <v>172.7559849008873</v>
+      </c>
+      <c r="L15" t="n">
+        <v>40.48968396114547</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>118.5207485348736</v>
+      </c>
+      <c r="D16" t="n">
+        <v>30.77171863133235</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>59.75669230987766</v>
+      </c>
+      <c r="G16" t="n">
+        <v>17.47039509391772</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6.948452594171821</v>
+      </c>
+      <c r="I16" t="n">
+        <v>83.38143113006186</v>
+      </c>
+      <c r="J16" t="n">
+        <v>58.96258344197231</v>
+      </c>
+      <c r="K16" t="n">
+        <v>179.4686041466093</v>
+      </c>
+      <c r="L16" t="n">
+        <v>40.10249782922023</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>122.8157206530585</v>
+      </c>
+      <c r="D17" t="n">
+        <v>30.14382530124819</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>61.5096975741686</v>
+      </c>
+      <c r="G17" t="n">
+        <v>17.92335558452595</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.110234858361119</v>
+      </c>
+      <c r="I17" t="n">
+        <v>85.13593902649825</v>
+      </c>
+      <c r="J17" t="n">
+        <v>60.69499959305378</v>
+      </c>
+      <c r="K17" t="n">
+        <v>181.4739752933252</v>
+      </c>
+      <c r="L17" t="n">
+        <v>41.95694602741302</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4225,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81093.75</v>
+        <v>80903.125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24030</v>
+        <v>12012.5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +5377,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4413.75</v>
+        <v>3027.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +5385,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10418.75</v>
+        <v>8315</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4257,7 +5393,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11895</v>
+        <v>5953.75</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4265,7 +5401,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>888.75</v>
+        <v>901.25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4273,7 +5409,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>825</v>
+        <v>631.25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4281,7 +5417,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20987.5</v>
+        <v>4188.75</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4289,7 +5425,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8970</v>
+        <v>12010</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4297,7 +5433,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27093.75</v>
+        <v>35957.5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4305,7 +5441,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8335</v>
+        <v>4157.5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4313,7 +5449,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>64875</v>
+        <v>48541.875</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4321,7 +5457,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12015</v>
+        <v>24025</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4329,7 +5465,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7356.25</v>
+        <v>4541.25</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4337,7 +5473,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2083.75</v>
+        <v>8315</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4345,7 +5481,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11895</v>
+        <v>11907.5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4353,7 +5489,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2666.25</v>
+        <v>1802.5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4361,7 +5497,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1375</v>
+        <v>315.625</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4369,7 +5505,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>59837.5</v>
+        <v>149865.625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4377,7 +5513,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>149593.75</v>
+        <v>29973.125</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4385,7 +5521,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>29918.75</v>
+        <v>89919.375</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4393,7 +5529,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>149593.75</v>
+        <v>59946.25</v>
       </c>
     </row>
   </sheetData>
@@ -4562,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4636,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4710,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4784,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4932,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5006,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5080,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5154,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5228,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5302,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5376,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5450,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5524,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5672,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -5746,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5820,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5894,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5968,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -6042,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_NonStationary.xlsx
+++ b/Instances/04_NonStationary.xlsx
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>56.61924299999999</v>
+        <v>56.57769</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>20.61901943181818</v>
+        <v>20.57610784090909</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>5.202786272727273</v>
+        <v>4.992268909090908</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2349,7 +2349,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>7.106943886363637</v>
+        <v>7.166773840909091</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>9.985088249999999</v>
+        <v>10.06265454545454</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>3.029773090909091</v>
+        <v>3.059188363636364</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2436,7 +2436,7 @@
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>1.056505909090909</v>
+        <v>1.020940363636364</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>14.83342997727273</v>
+        <v>14.84228311363636</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>10.61247272727273</v>
+        <v>10.53294545454546</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1818</v>
+        <v>1823</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>31.61007480681818</v>
+        <v>31.63864540909091</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>7.357641136363637</v>
+        <v>7.419581590909092</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3303</v>
+        <v>3292</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>54.23098275</v>
+        <v>54.19118249999999</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2610,7 +2610,7 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>20.17280965909091</v>
+        <v>20.13082670454546</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2639,7 +2639,7 @@
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>5.015769340909092</v>
+        <v>4.812819136363637</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>6.816107863636363</v>
+        <v>6.873489409090909</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2697,7 +2697,7 @@
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>9.789751124999999</v>
+        <v>9.865799999999998</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2726,7 +2726,7 @@
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>2.970487227272728</v>
+        <v>2.99932690909091</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2755,7 +2755,7 @@
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>1.036053409090909</v>
+        <v>1.001176363636364</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2784,7 +2784,7 @@
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>12.89934306818182</v>
+        <v>12.87916977272727</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2813,7 +2813,7 @@
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>13.69390336363636</v>
+        <v>13.67248745454545</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2842,7 +2842,7 @@
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>16.95061963636364</v>
+        <v>16.92411054545455</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2871,7 +2871,7 @@
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>52.15650729545455</v>
+        <v>52.07493968181819</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -2897,7 +2897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2981,34 +2981,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D2" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="G2" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H2" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I2" t="n">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J2" t="n">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K2" t="n">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="L2" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3052,34 +3052,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G3" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H3" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I3" t="n">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J3" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K3" t="n">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="L3" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3123,34 +3123,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D4" t="n">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="G4" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I4" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J4" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K4" t="n">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="L4" t="n">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3194,34 +3194,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D5" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="G5" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H5" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I5" t="n">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K5" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="L5" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3265,31 +3265,31 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="D6" t="n">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="G6" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I6" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J6" t="n">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K6" t="n">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="L6" t="n">
         <v>208</v>
@@ -3336,34 +3336,34 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="D7" t="n">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G7" t="n">
         <v>90</v>
       </c>
       <c r="H7" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="J7" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K7" t="n">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="L7" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -3407,34 +3407,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D8" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G8" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I8" t="n">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J8" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K8" t="n">
         <v>898</v>
       </c>
       <c r="L8" t="n">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -3481,31 +3481,31 @@
         <v>604</v>
       </c>
       <c r="D9" t="n">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H9" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I9" t="n">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J9" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K9" t="n">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="L9" t="n">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -3538,574 +3538,6 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>601</v>
-      </c>
-      <c r="D10" t="n">
-        <v>153</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>302</v>
-      </c>
-      <c r="G10" t="n">
-        <v>90</v>
-      </c>
-      <c r="H10" t="n">
-        <v>33</v>
-      </c>
-      <c r="I10" t="n">
-        <v>418</v>
-      </c>
-      <c r="J10" t="n">
-        <v>295</v>
-      </c>
-      <c r="K10" t="n">
-        <v>895</v>
-      </c>
-      <c r="L10" t="n">
-        <v>197</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>604</v>
-      </c>
-      <c r="D11" t="n">
-        <v>150</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>300</v>
-      </c>
-      <c r="G11" t="n">
-        <v>94</v>
-      </c>
-      <c r="H11" t="n">
-        <v>25</v>
-      </c>
-      <c r="I11" t="n">
-        <v>419</v>
-      </c>
-      <c r="J11" t="n">
-        <v>301</v>
-      </c>
-      <c r="K11" t="n">
-        <v>907</v>
-      </c>
-      <c r="L11" t="n">
-        <v>213</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>594</v>
-      </c>
-      <c r="D12" t="n">
-        <v>148</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>297</v>
-      </c>
-      <c r="G12" t="n">
-        <v>98</v>
-      </c>
-      <c r="H12" t="n">
-        <v>32</v>
-      </c>
-      <c r="I12" t="n">
-        <v>421</v>
-      </c>
-      <c r="J12" t="n">
-        <v>296</v>
-      </c>
-      <c r="K12" t="n">
-        <v>903</v>
-      </c>
-      <c r="L12" t="n">
-        <v>207</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>605</v>
-      </c>
-      <c r="D13" t="n">
-        <v>150</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>299</v>
-      </c>
-      <c r="G13" t="n">
-        <v>87</v>
-      </c>
-      <c r="H13" t="n">
-        <v>41</v>
-      </c>
-      <c r="I13" t="n">
-        <v>420</v>
-      </c>
-      <c r="J13" t="n">
-        <v>303</v>
-      </c>
-      <c r="K13" t="n">
-        <v>901</v>
-      </c>
-      <c r="L13" t="n">
-        <v>205</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>605</v>
-      </c>
-      <c r="D14" t="n">
-        <v>152</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>300</v>
-      </c>
-      <c r="G14" t="n">
-        <v>90</v>
-      </c>
-      <c r="H14" t="n">
-        <v>30</v>
-      </c>
-      <c r="I14" t="n">
-        <v>418</v>
-      </c>
-      <c r="J14" t="n">
-        <v>300</v>
-      </c>
-      <c r="K14" t="n">
-        <v>897</v>
-      </c>
-      <c r="L14" t="n">
-        <v>206</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>596</v>
-      </c>
-      <c r="D15" t="n">
-        <v>154</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>305</v>
-      </c>
-      <c r="G15" t="n">
-        <v>87</v>
-      </c>
-      <c r="H15" t="n">
-        <v>26</v>
-      </c>
-      <c r="I15" t="n">
-        <v>421</v>
-      </c>
-      <c r="J15" t="n">
-        <v>304</v>
-      </c>
-      <c r="K15" t="n">
-        <v>896</v>
-      </c>
-      <c r="L15" t="n">
-        <v>210</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>597</v>
-      </c>
-      <c r="D16" t="n">
-        <v>155</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>301</v>
-      </c>
-      <c r="G16" t="n">
-        <v>88</v>
-      </c>
-      <c r="H16" t="n">
-        <v>35</v>
-      </c>
-      <c r="I16" t="n">
-        <v>420</v>
-      </c>
-      <c r="J16" t="n">
-        <v>297</v>
-      </c>
-      <c r="K16" t="n">
-        <v>904</v>
-      </c>
-      <c r="L16" t="n">
-        <v>202</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>603</v>
-      </c>
-      <c r="D17" t="n">
-        <v>148</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>302</v>
-      </c>
-      <c r="G17" t="n">
-        <v>88</v>
-      </c>
-      <c r="H17" t="n">
-        <v>30</v>
-      </c>
-      <c r="I17" t="n">
-        <v>418</v>
-      </c>
-      <c r="J17" t="n">
-        <v>298</v>
-      </c>
-      <c r="K17" t="n">
-        <v>891</v>
-      </c>
-      <c r="L17" t="n">
-        <v>206</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4120,7 +3552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4204,34 +3636,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15.125</v>
+        <v>14.975</v>
       </c>
       <c r="D2" t="n">
-        <v>3.699999999999999</v>
+        <v>3.799999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.274999999999999</v>
+        <v>7.499999999999998</v>
       </c>
       <c r="G2" t="n">
-        <v>2.375</v>
+        <v>2.274999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.7499999999999998</v>
       </c>
       <c r="I2" t="n">
-        <v>10.55</v>
+        <v>10.475</v>
       </c>
       <c r="J2" t="n">
-        <v>7.649999999999999</v>
+        <v>7.574999999999998</v>
       </c>
       <c r="K2" t="n">
-        <v>22.54999999999999</v>
+        <v>22.5</v>
       </c>
       <c r="L2" t="n">
-        <v>5.099999999999999</v>
+        <v>5.174999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -4275,34 +3707,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>28.49999999999999</v>
+        <v>28.54749999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>7.219999999999998</v>
+        <v>6.982499999999998</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>14.3925</v>
+        <v>14.2025</v>
       </c>
       <c r="G3" t="n">
-        <v>3.989999999999999</v>
+        <v>4.512499999999998</v>
       </c>
       <c r="H3" t="n">
-        <v>1.567499999999999</v>
+        <v>1.2825</v>
       </c>
       <c r="I3" t="n">
-        <v>20.04499999999999</v>
+        <v>19.95</v>
       </c>
       <c r="J3" t="n">
-        <v>14.345</v>
+        <v>14.0125</v>
       </c>
       <c r="K3" t="n">
-        <v>42.74999999999999</v>
+        <v>43.08249999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>9.784999999999997</v>
+        <v>10.0225</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -4346,34 +3778,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.44674999999999</v>
+        <v>40.24349999999998</v>
       </c>
       <c r="D4" t="n">
-        <v>10.4335</v>
+        <v>9.823749999999997</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>19.78299999999999</v>
+        <v>20.25724999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>6.097499999999998</v>
+        <v>6.232999999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1.829249999999999</v>
+        <v>1.693749999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>28.45499999999999</v>
+        <v>28.38724999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>19.98624999999999</v>
+        <v>20.12174999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>61.44924999999998</v>
+        <v>60.97499999999998</v>
       </c>
       <c r="L4" t="n">
-        <v>13.6855</v>
+        <v>14.29525</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -4417,34 +3849,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>51.75695</v>
+        <v>51.41305</v>
       </c>
       <c r="D5" t="n">
-        <v>13.24015</v>
+        <v>12.89625</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.362625</v>
+        <v>26.1364</v>
       </c>
       <c r="G5" t="n">
-        <v>6.706049999999999</v>
+        <v>7.651775</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7829</v>
+        <v>3.524975</v>
       </c>
       <c r="I5" t="n">
-        <v>36.28145</v>
+        <v>35.93755</v>
       </c>
       <c r="J5" t="n">
-        <v>25.7925</v>
+        <v>25.706525</v>
       </c>
       <c r="K5" t="n">
-        <v>77.03359999999999</v>
+        <v>77.119575</v>
       </c>
       <c r="L5" t="n">
-        <v>18.312675</v>
+        <v>18.2267</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -4488,31 +3920,31 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>61.93838749999999</v>
+        <v>61.22174499999999</v>
       </c>
       <c r="D6" t="n">
-        <v>15.6637575</v>
+        <v>14.128095</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>29.3823425</v>
+        <v>30.40611749999999</v>
       </c>
       <c r="G6" t="n">
-        <v>9.418729999999998</v>
+        <v>8.599709999999998</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7641925</v>
+        <v>2.9689475</v>
       </c>
       <c r="I6" t="n">
-        <v>42.69141749999999</v>
+        <v>42.99854999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>31.2251375</v>
+        <v>30.6108725</v>
       </c>
       <c r="K6" t="n">
-        <v>91.11597499999998</v>
+        <v>92.13974999999998</v>
       </c>
       <c r="L6" t="n">
         <v>21.29452</v>
@@ -4559,34 +3991,34 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>69.34673199999999</v>
+        <v>70.51812949999999</v>
       </c>
       <c r="D7" t="n">
-        <v>17.92238175</v>
+        <v>16.75098425</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>34.90764549999999</v>
+        <v>35.37620449999999</v>
       </c>
       <c r="G7" t="n">
         <v>10.5425775</v>
       </c>
       <c r="H7" t="n">
-        <v>4.217031</v>
+        <v>4.09989125</v>
       </c>
       <c r="I7" t="n">
-        <v>48.61299624999999</v>
+        <v>48.96441549999999</v>
       </c>
       <c r="J7" t="n">
-        <v>35.25906474999999</v>
+        <v>34.90764549999999</v>
       </c>
       <c r="K7" t="n">
-        <v>105.77719425</v>
+        <v>105.1914955</v>
       </c>
       <c r="L7" t="n">
-        <v>24.71648725</v>
+        <v>24.48220775</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -4630,34 +4062,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>78.25546499999999</v>
+        <v>78.12503922499998</v>
       </c>
       <c r="D8" t="n">
-        <v>19.43344047499999</v>
+        <v>18.7813116</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>38.86688094999999</v>
+        <v>39.25815827499999</v>
       </c>
       <c r="G8" t="n">
-        <v>11.868745525</v>
+        <v>12.390448625</v>
       </c>
       <c r="H8" t="n">
-        <v>3.912773249999999</v>
+        <v>3.651921699999999</v>
       </c>
       <c r="I8" t="n">
-        <v>53.99627084999999</v>
+        <v>54.64839972499998</v>
       </c>
       <c r="J8" t="n">
-        <v>39.25815827499999</v>
+        <v>38.73645517499999</v>
       </c>
       <c r="K8" t="n">
         <v>117.12234595</v>
       </c>
       <c r="L8" t="n">
-        <v>28.17196739999999</v>
+        <v>27.51983852499999</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -4704,31 +4136,31 @@
         <v>85.99945128999998</v>
       </c>
       <c r="D9" t="n">
-        <v>21.2150964275</v>
+        <v>20.3607972425</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>41.71827686749999</v>
+        <v>42.43019285499999</v>
       </c>
       <c r="G9" t="n">
-        <v>14.23831975</v>
+        <v>13.09925417</v>
       </c>
       <c r="H9" t="n">
-        <v>4.556262319999999</v>
+        <v>4.129112727499999</v>
       </c>
       <c r="I9" t="n">
-        <v>59.08902696249999</v>
+        <v>59.80094294999999</v>
       </c>
       <c r="J9" t="n">
-        <v>42.71495924999999</v>
+        <v>42.14542646</v>
       </c>
       <c r="K9" t="n">
-        <v>127.1481953675</v>
+        <v>127.860111355</v>
       </c>
       <c r="L9" t="n">
-        <v>31.32430345</v>
+        <v>29.61570507999999</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -4761,574 +4193,6 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>92.04007152774997</v>
-      </c>
-      <c r="D10" t="n">
-        <v>23.43116629575</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>46.24975308049999</v>
-      </c>
-      <c r="G10" t="n">
-        <v>13.7830389975</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5.053780965749999</v>
-      </c>
-      <c r="I10" t="n">
-        <v>64.01455889949999</v>
-      </c>
-      <c r="J10" t="n">
-        <v>45.17773893624999</v>
-      </c>
-      <c r="K10" t="n">
-        <v>137.06466558625</v>
-      </c>
-      <c r="L10" t="n">
-        <v>30.16954091674999</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>98.3495555449</v>
-      </c>
-      <c r="D11" t="n">
-        <v>24.42455849625</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>48.84911699249999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>15.30605665765</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4.070759749375</v>
-      </c>
-      <c r="I11" t="n">
-        <v>68.22593339952499</v>
-      </c>
-      <c r="J11" t="n">
-        <v>49.011947382475</v>
-      </c>
-      <c r="K11" t="n">
-        <v>147.687163707325</v>
-      </c>
-      <c r="L11" t="n">
-        <v>34.682873064675</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>101.899126480635</v>
-      </c>
-      <c r="D12" t="n">
-        <v>25.38900794467</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>50.9495632403175</v>
-      </c>
-      <c r="G12" t="n">
-        <v>16.811640395795</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5.48951523128</v>
-      </c>
-      <c r="I12" t="n">
-        <v>72.22143476152749</v>
-      </c>
-      <c r="J12" t="n">
-        <v>50.77801588934</v>
-      </c>
-      <c r="K12" t="n">
-        <v>154.9072579326825</v>
-      </c>
-      <c r="L12" t="n">
-        <v>35.5103016523425</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>108.5325326072487</v>
-      </c>
-      <c r="D13" t="n">
-        <v>26.9088923819625</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>53.63839214804524</v>
-      </c>
-      <c r="G13" t="n">
-        <v>15.60715758153825</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7.355097251069749</v>
-      </c>
-      <c r="I13" t="n">
-        <v>75.344898669495</v>
-      </c>
-      <c r="J13" t="n">
-        <v>54.35596261156424</v>
-      </c>
-      <c r="K13" t="n">
-        <v>161.6327469076547</v>
-      </c>
-      <c r="L13" t="n">
-        <v>36.77548625534875</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>112.8042793465239</v>
-      </c>
-      <c r="D14" t="n">
-        <v>28.3409098523498</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>55.93600628753249</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16.78080188625975</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5.59360062875325</v>
-      </c>
-      <c r="I14" t="n">
-        <v>77.93750209396194</v>
-      </c>
-      <c r="J14" t="n">
-        <v>55.93600628753249</v>
-      </c>
-      <c r="K14" t="n">
-        <v>167.2486587997222</v>
-      </c>
-      <c r="L14" t="n">
-        <v>38.40939098410565</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>114.9135792421081</v>
-      </c>
-      <c r="D15" t="n">
-        <v>29.69243490484001</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>58.80644575309223</v>
-      </c>
-      <c r="G15" t="n">
-        <v>16.77429764104598</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5.013008490427534</v>
-      </c>
-      <c r="I15" t="n">
-        <v>81.17217594115353</v>
-      </c>
-      <c r="J15" t="n">
-        <v>58.61363773422963</v>
-      </c>
-      <c r="K15" t="n">
-        <v>172.7559849008873</v>
-      </c>
-      <c r="L15" t="n">
-        <v>40.48968396114547</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>118.5207485348736</v>
-      </c>
-      <c r="D16" t="n">
-        <v>30.77171863133235</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>59.75669230987766</v>
-      </c>
-      <c r="G16" t="n">
-        <v>17.47039509391772</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6.948452594171821</v>
-      </c>
-      <c r="I16" t="n">
-        <v>83.38143113006186</v>
-      </c>
-      <c r="J16" t="n">
-        <v>58.96258344197231</v>
-      </c>
-      <c r="K16" t="n">
-        <v>179.4686041466093</v>
-      </c>
-      <c r="L16" t="n">
-        <v>40.10249782922023</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>122.8157206530585</v>
-      </c>
-      <c r="D17" t="n">
-        <v>30.14382530124819</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>61.5096975741686</v>
-      </c>
-      <c r="G17" t="n">
-        <v>17.92335558452595</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6.110234858361119</v>
-      </c>
-      <c r="I17" t="n">
-        <v>85.13593902649825</v>
-      </c>
-      <c r="J17" t="n">
-        <v>60.69499959305378</v>
-      </c>
-      <c r="K17" t="n">
-        <v>181.4739752933252</v>
-      </c>
-      <c r="L17" t="n">
-        <v>41.95694602741302</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5361,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80903.125</v>
+        <v>80843.75</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5369,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12012.5</v>
+        <v>11987.5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5377,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3027.5</v>
+        <v>4357.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5385,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8315</v>
+        <v>10481.25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5393,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5953.75</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5401,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901.25</v>
+        <v>910</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5409,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>631.25</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5417,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4188.75</v>
+        <v>8382.5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5425,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12010</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5433,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>35957.5</v>
+        <v>8997.5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5441,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4157.5</v>
+        <v>6288.75</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5449,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>48541.875</v>
+        <v>32337.5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5457,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24025</v>
+        <v>17981.25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5465,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4541.25</v>
+        <v>7262.5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5473,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8315</v>
+        <v>6288.75</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5481,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11907.5</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5489,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1802.5</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5497,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>315.625</v>
+        <v>915</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5505,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>149865.625</v>
+        <v>59852.5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5513,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>29973.125</v>
+        <v>89778.75</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5521,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>89919.375</v>
+        <v>149631.25</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5529,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>59946.25</v>
+        <v>29926.25</v>
       </c>
     </row>
   </sheetData>
@@ -5772,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -5846,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5920,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6068,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6142,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6216,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6290,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6364,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -6438,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -6512,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -6586,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -6660,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -6734,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -6808,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -6882,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -6956,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7030,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7104,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7178,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_NonStationary.xlsx
+++ b/Instances/04_NonStationary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -46,7 +46,10 @@
     <t>NonStationary</t>
   </si>
   <si>
-    <t>NrTimeBucketWithoutUncertainty</t>
+    <t>NrTimeBucketWithoutUncertaintyBefore</t>
+  </si>
+  <si>
+    <t>NrTimeBucketWithoutUncertaintyAfter</t>
   </si>
   <si>
     <t>Dist_0001</t>
@@ -485,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -551,6 +554,14 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -575,75 +586,75 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -714,7 +725,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -785,7 +796,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -856,7 +867,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -927,7 +938,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -998,7 +1009,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -1069,7 +1080,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -1140,7 +1151,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -1211,7 +1222,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -1282,7 +1293,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1353,7 +1364,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -1424,7 +1435,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -1495,7 +1506,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -1566,7 +1577,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -1637,7 +1648,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -1708,7 +1719,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -1779,7 +1790,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -1850,7 +1861,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -1921,7 +1932,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -1992,7 +2003,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -2063,7 +2074,7 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -2134,7 +2145,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -2224,33 +2235,33 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2262,7 +2273,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>56.57769</v>
+        <v>11.699842</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2279,19 +2290,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1211</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>20.57610784090909</v>
+        <v>2.173297999999998</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2308,19 +2319,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>4.992268909090908</v>
+        <v>0.9059999999999985</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2337,7 +2348,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -2349,7 +2360,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>7.166773840909091</v>
+        <v>1.433835000000003</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2366,19 +2377,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>604</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>10.06265454545454</v>
+        <v>0.9628009999999966</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2395,19 +2406,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>3.059188363636364</v>
+        <v>0.3010979999999997</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2424,19 +2435,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>1.020940363636364</v>
+        <v>0.09979200000000013</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2453,7 +2464,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2465,7 +2476,7 @@
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>14.84228311363636</v>
+        <v>0.8619780000000009</v>
       </c>
       <c r="F9" t="n">
         <v>0.86564</v>
@@ -2482,19 +2493,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>10.53294545454546</v>
+        <v>0.5171040000000022</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2511,19 +2522,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1823</v>
+        <v>1831</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>31.63864540909091</v>
+        <v>0.7584150000000067</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2540,19 +2551,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>7.419581590909092</v>
+        <v>1.235949000000003</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2569,19 +2580,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3292</v>
+        <v>3307</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>54.19118249999999</v>
+        <v>12.58186999999998</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2598,19 +2609,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>20.13082670454546</v>
+        <v>4.849231</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2627,19 +2638,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>4.812819136363637</v>
+        <v>0.8844000000000019</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2656,19 +2667,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>6.873489409090909</v>
+        <v>0.8821019999999978</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2685,19 +2696,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>9.865799999999998</v>
+        <v>1.404584999999997</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2714,19 +2725,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D18" t="n">
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>2.99932690909091</v>
+        <v>0.4718700000000016</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2743,19 +2754,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>1.001176363636364</v>
+        <v>0.138096</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2772,7 +2783,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -2784,7 +2795,7 @@
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>12.87916977272727</v>
+        <v>63.21731000000001</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2801,7 +2812,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -2813,7 +2824,7 @@
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>13.67248745454545</v>
+        <v>67.111304</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2830,7 +2841,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -2842,7 +2853,7 @@
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>16.92411054545455</v>
+        <v>83.07187200000001</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2859,7 +2870,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -2871,7 +2882,7 @@
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>52.07493968181819</v>
+        <v>255.609458</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -2907,70 +2918,70 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -2981,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D2" t="n">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2993,22 +3004,22 @@
         <v>300</v>
       </c>
       <c r="G2" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J2" t="n">
         <v>303</v>
       </c>
       <c r="K2" t="n">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="L2" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3052,34 +3063,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="D3" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G3" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H3" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I3" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J3" t="n">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="K3" t="n">
         <v>907</v>
       </c>
       <c r="L3" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3123,34 +3134,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D4" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G4" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J4" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="L4" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3194,34 +3205,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D5" t="n">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G5" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H5" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I5" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J5" t="n">
         <v>299</v>
       </c>
       <c r="K5" t="n">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="L5" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3265,34 +3276,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D6" t="n">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="G6" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H6" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I6" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J6" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K6" t="n">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="L6" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3336,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D7" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G7" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" t="n">
         <v>418</v>
       </c>
       <c r="J7" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K7" t="n">
         <v>898</v>
@@ -3407,34 +3418,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="D8" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G8" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H8" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I8" t="n">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J8" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K8" t="n">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="L8" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -3478,34 +3489,34 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D9" t="n">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G9" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I9" t="n">
         <v>420</v>
       </c>
       <c r="J9" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K9" t="n">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L9" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -3562,70 +3573,70 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -3636,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14.975</v>
+        <v>15.025</v>
       </c>
       <c r="D2" t="n">
-        <v>3.799999999999999</v>
+        <v>3.724999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3648,22 +3659,22 @@
         <v>7.499999999999998</v>
       </c>
       <c r="G2" t="n">
-        <v>2.274999999999999</v>
+        <v>2.524999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7499999999999998</v>
+        <v>0.5499999999999998</v>
       </c>
       <c r="I2" t="n">
-        <v>10.475</v>
+        <v>10.425</v>
       </c>
       <c r="J2" t="n">
         <v>7.574999999999998</v>
       </c>
       <c r="K2" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="L2" t="n">
-        <v>5.174999999999999</v>
+        <v>5.249999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3707,34 +3718,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>28.54749999999999</v>
+        <v>28.07249999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>6.982499999999998</v>
+        <v>7.219999999999998</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>14.2025</v>
+        <v>14.44</v>
       </c>
       <c r="G3" t="n">
-        <v>4.512499999999998</v>
+        <v>4.369999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1.2825</v>
+        <v>1.8525</v>
       </c>
       <c r="I3" t="n">
-        <v>19.95</v>
+        <v>20.04499999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>14.0125</v>
+        <v>14.345</v>
       </c>
       <c r="K3" t="n">
         <v>43.08249999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>10.0225</v>
+        <v>10.26</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3778,34 +3789,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.24349999999998</v>
+        <v>40.31124999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>9.823749999999997</v>
+        <v>9.959249999999997</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>20.25724999999999</v>
+        <v>20.05399999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>6.232999999999998</v>
+        <v>5.758749999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1.693749999999999</v>
+        <v>1.829249999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>28.38724999999999</v>
+        <v>28.45499999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>20.12174999999999</v>
+        <v>20.32499999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>60.97499999999998</v>
+        <v>61.31374999999998</v>
       </c>
       <c r="L4" t="n">
-        <v>14.29525</v>
+        <v>14.092</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3849,34 +3860,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>51.41305</v>
+        <v>51.327075</v>
       </c>
       <c r="D5" t="n">
-        <v>12.89625</v>
+        <v>12.20845</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>26.1364</v>
+        <v>25.96445</v>
       </c>
       <c r="G5" t="n">
-        <v>7.651775</v>
+        <v>7.479825</v>
       </c>
       <c r="H5" t="n">
-        <v>3.524975</v>
+        <v>2.0634</v>
       </c>
       <c r="I5" t="n">
-        <v>35.93755</v>
+        <v>36.023525</v>
       </c>
       <c r="J5" t="n">
         <v>25.706525</v>
       </c>
       <c r="K5" t="n">
-        <v>77.119575</v>
+        <v>77.463475</v>
       </c>
       <c r="L5" t="n">
-        <v>18.2267</v>
+        <v>17.8828</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3920,34 +3931,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>61.22174499999999</v>
+        <v>60.91461249999999</v>
       </c>
       <c r="D6" t="n">
-        <v>14.128095</v>
+        <v>16.175645</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>30.40611749999999</v>
+        <v>31.12276</v>
       </c>
       <c r="G6" t="n">
-        <v>8.599709999999998</v>
+        <v>9.316352499999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9689475</v>
+        <v>3.685589999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>42.99854999999999</v>
+        <v>43.20330499999999</v>
       </c>
       <c r="J6" t="n">
-        <v>30.6108725</v>
+        <v>30.30373999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>92.13974999999998</v>
+        <v>92.54925999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>21.29452</v>
+        <v>21.90878499999999</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3991,28 +4002,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>70.51812949999999</v>
+        <v>70.75240899999999</v>
       </c>
       <c r="D7" t="n">
-        <v>16.75098425</v>
+        <v>17.45382275</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>35.37620449999999</v>
+        <v>35.25906474999999</v>
       </c>
       <c r="G7" t="n">
-        <v>10.5425775</v>
+        <v>11.12827625</v>
       </c>
       <c r="H7" t="n">
-        <v>4.09989125</v>
+        <v>3.9827515</v>
       </c>
       <c r="I7" t="n">
         <v>48.96441549999999</v>
       </c>
       <c r="J7" t="n">
-        <v>34.90764549999999</v>
+        <v>35.25906474999999</v>
       </c>
       <c r="K7" t="n">
         <v>105.1914955</v>
@@ -4062,34 +4073,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>78.12503922499998</v>
+        <v>79.03801964999998</v>
       </c>
       <c r="D8" t="n">
-        <v>18.7813116</v>
+        <v>19.30301469999999</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>39.25815827499999</v>
+        <v>39.64943559999999</v>
       </c>
       <c r="G8" t="n">
-        <v>12.390448625</v>
+        <v>12.78172595</v>
       </c>
       <c r="H8" t="n">
-        <v>3.651921699999999</v>
+        <v>4.825753674999999</v>
       </c>
       <c r="I8" t="n">
-        <v>54.64839972499998</v>
+        <v>54.25712239999999</v>
       </c>
       <c r="J8" t="n">
-        <v>38.73645517499999</v>
+        <v>38.34517784999999</v>
       </c>
       <c r="K8" t="n">
-        <v>117.12234595</v>
+        <v>117.774474825</v>
       </c>
       <c r="L8" t="n">
-        <v>27.51983852499999</v>
+        <v>26.99813542499999</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -4133,34 +4144,34 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>85.99945128999998</v>
+        <v>85.14515210499998</v>
       </c>
       <c r="D9" t="n">
-        <v>20.3607972425</v>
+        <v>22.0693956125</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>42.43019285499999</v>
+        <v>41.29112727499999</v>
       </c>
       <c r="G9" t="n">
-        <v>13.09925417</v>
+        <v>14.23831975</v>
       </c>
       <c r="H9" t="n">
-        <v>4.129112727499999</v>
+        <v>4.698645517499999</v>
       </c>
       <c r="I9" t="n">
         <v>59.80094294999999</v>
       </c>
       <c r="J9" t="n">
-        <v>42.14542646</v>
+        <v>42.57257605249999</v>
       </c>
       <c r="K9" t="n">
-        <v>127.860111355</v>
+        <v>127.7177281575</v>
       </c>
       <c r="L9" t="n">
-        <v>29.61570507999999</v>
+        <v>29.18855548749999</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -4207,7 +4218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4225,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80843.75</v>
+        <v>20118</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11987.5</v>
+        <v>210323.75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4252,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4357.5</v>
+        <v>210323.75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,151 +4260,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10481.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8382.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>8997.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6288.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>32337.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>17981.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7262.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6288.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3640</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>59852.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>89778.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>149631.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>29926.25</v>
+        <v>1983052.5</v>
       </c>
     </row>
   </sheetData>
@@ -4407,7 +4274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4415,7 +4282,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -4428,846 +4295,198 @@
       <c r="E1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="B9" t="n">
+        <v>14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="B10" t="n">
+        <v>14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
@@ -5275,69 +4494,15 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -5346,69 +4511,15 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -5417,69 +4528,15 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -5488,69 +4545,15 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -5559,69 +4562,15 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -5630,69 +4579,15 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -5701,69 +4596,15 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -5775,66 +4616,12 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -5846,66 +4633,12 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>3</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -5917,66 +4650,12 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>5</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -5989,60 +4668,6 @@
       </c>
       <c r="E23" t="n">
         <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
